--- a/asuschedule/document.xlsx
+++ b/asuschedule/document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\ASU_Schedule\asuschedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA970D-8E67-4FDA-9FB0-F38919091795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90517E7F-C6CF-481E-9837-4ECCCC0E43A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="225">
   <si>
     <t>Курс</t>
   </si>
@@ -2553,7 +2553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C2F2DF-FE59-47D0-BDF3-50F27700A4C2}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
@@ -11965,10 +11965,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50098D-1ABF-4068-8B74-18169C8AD7A1}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12601,62 +12601,61 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
+      <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="21">
-        <v>1</v>
-      </c>
       <c r="D22" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="21">
-        <v>3</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="21">
-        <v>328</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="21">
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
       <c r="D23" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E23" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="H23" s="21">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="J23" s="21">
         <v>1</v>
@@ -12674,10 +12673,10 @@
         <v>114</v>
       </c>
       <c r="E24" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>141</v>
@@ -12704,19 +12703,19 @@
         <v>114</v>
       </c>
       <c r="E25" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="H25" s="21">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J25" s="21">
         <v>1</v>
@@ -12734,14 +12733,20 @@
         <v>114</v>
       </c>
       <c r="E26" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
+        <v>212</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26" s="21">
+        <v>329</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="J26" s="21">
         <v>1</v>
       </c>
@@ -12751,29 +12756,21 @@
         <v>3</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="21">
-        <v>2</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C27" s="21"/>
       <c r="D27" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E27" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="21">
-        <v>404</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>214</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
       <c r="J27" s="21">
         <v>1</v>
       </c>
@@ -12785,24 +12782,26 @@
       <c r="B28" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="21">
+        <v>2</v>
+      </c>
       <c r="D28" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E28" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="H28" s="21">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="J28" s="21">
         <v>1</v>
@@ -12815,26 +12814,24 @@
       <c r="B29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="21">
-        <v>1</v>
-      </c>
+      <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E29" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H29" s="21">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="J29" s="21">
         <v>1</v>
@@ -12848,7 +12845,7 @@
         <v>60</v>
       </c>
       <c r="C30" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>114</v>
@@ -12857,13 +12854,13 @@
         <v>3</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H30" s="21">
-        <v>328</v>
+        <v>405</v>
       </c>
       <c r="I30" s="21" t="s">
         <v>214</v>
@@ -12879,19 +12876,27 @@
       <c r="B31" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="21">
+        <v>2</v>
+      </c>
       <c r="D31" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E31" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="21">
+        <v>328</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>214</v>
+      </c>
       <c r="J31" s="21">
         <v>1</v>
       </c>
@@ -12901,27 +12906,21 @@
         <v>3</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E32" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="21">
-        <v>405</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>214</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
       <c r="J32" s="21">
         <v>1</v>
       </c>
@@ -12938,7 +12937,7 @@
         <v>114</v>
       </c>
       <c r="E33" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>71</v>
@@ -12950,7 +12949,7 @@
         <v>405</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="J33" s="21">
         <v>1</v>
@@ -12968,19 +12967,19 @@
         <v>114</v>
       </c>
       <c r="E34" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="H34" s="21">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="J34" s="21">
         <v>1</v>
@@ -12998,14 +12997,20 @@
         <v>114</v>
       </c>
       <c r="E35" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="21">
+        <v>404</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>214</v>
+      </c>
       <c r="J35" s="21">
         <v>1</v>
       </c>
@@ -13015,27 +13020,21 @@
         <v>3</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21" t="s">
         <v>114</v>
       </c>
       <c r="E36" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="21">
-        <v>327</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>14</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
       <c r="J36" s="21">
         <v>1</v>
       </c>
@@ -13052,16 +13051,16 @@
         <v>114</v>
       </c>
       <c r="E37" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="H37" s="21">
-        <v>407</v>
+        <v>327</v>
       </c>
       <c r="I37" s="21" t="s">
         <v>14</v>
@@ -13082,16 +13081,16 @@
         <v>114</v>
       </c>
       <c r="E38" s="21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="H38" s="21">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="I38" s="21" t="s">
         <v>14</v>
@@ -13112,15 +13111,45 @@
         <v>114</v>
       </c>
       <c r="E39" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="21">
+        <v>318</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <v>3</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="21">
+        <v>4</v>
+      </c>
+      <c r="F40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21">
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21">
         <v>1</v>
       </c>
     </row>

--- a/asuschedule/document.xlsx
+++ b/asuschedule/document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\ASU_Schedule\asuschedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90517E7F-C6CF-481E-9837-4ECCCC0E43A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A762F032-19F9-4157-9C34-97D2A18BF76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="Лист8" sheetId="8" r:id="rId8"/>
     <sheet name="Лист9" sheetId="9" r:id="rId9"/>
     <sheet name="Лист10" sheetId="10" r:id="rId10"/>
+    <sheet name="Лист11" sheetId="11" r:id="rId11"/>
+    <sheet name="Лист12" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="228">
   <si>
     <t>Курс</t>
   </si>
@@ -716,6 +718,15 @@
   </si>
   <si>
     <t>Теоретическая механика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Онищенко С.В. </t>
+  </si>
+  <si>
+    <t>к.т.н., доц. Бучацкий П.Ю. / Атагян Д.А.</t>
+  </si>
+  <si>
+    <t>к.ф-м.н., доц. Киздермишов А.А</t>
   </si>
 </sst>
 </file>
@@ -2553,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C2F2DF-FE59-47D0-BDF3-50F27700A4C2}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2615,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -2673,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -3786,6 +3797,1187 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC10DB3-35FC-4C6A-8252-97FB7BCAAC35}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>329</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>1</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <v>328</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H10">
+        <v>405</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <v>1</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11">
+        <v>327</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>2</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="21">
+        <v>2</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="21">
+        <v>324</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>2</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="21">
+        <v>3</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="21">
+        <v>324</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>2</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="21">
+        <v>4</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H14" s="21">
+        <v>324</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>2</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="21">
+        <v>317</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>2</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="21">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="21">
+        <v>406</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>2</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="21">
+        <v>2</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="21">
+        <v>407</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>2</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="21">
+        <v>328</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>2</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="21">
+        <v>2</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="21">
+        <v>318</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <v>2</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="21">
+        <v>2</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H20" s="21">
+        <v>318</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="21">
+        <v>329</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <v>2</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E22" s="21">
+        <v>4</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="21">
+        <v>404</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <v>3</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="21">
+        <v>325</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <v>3</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="21">
+        <v>2</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" s="21">
+        <v>317</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <v>3</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="21">
+        <v>3</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="21">
+        <v>319</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <v>3</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="21">
+        <v>4</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="21">
+        <v>329</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <v>3</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="21">
+        <v>1</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="21">
+        <v>407</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <v>3</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="21">
+        <v>2</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="21">
+        <v>1</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="21">
+        <v>405</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
+        <v>3</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E29" s="21">
+        <v>2</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="21">
+        <v>406</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
+        <v>3</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="21">
+        <v>2</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="21">
+        <v>406</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <v>3</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="21">
+        <v>3</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="21">
+        <v>405</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J31" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <v>3</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="21">
+        <v>4</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J32" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <v>3</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="21">
+        <v>1</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H33" s="21">
+        <v>327</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
+        <v>3</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="21">
+        <v>2</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="21">
+        <v>325</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="21">
+        <v>3</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="21">
+        <v>3</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="21">
+        <v>407</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059CF91E-6117-45C5-82C8-C939713C8D5E}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" s="21">
+        <v>405</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="21">
+        <v>2</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="21">
+        <v>405</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11967,8 +13159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50098D-1ABF-4068-8B74-18169C8AD7A1}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12067,7 +13259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>1</v>
       </c>

--- a/asuschedule/document.xlsx
+++ b/asuschedule/document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\ASU_Schedule\asuschedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A762F032-19F9-4157-9C34-97D2A18BF76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981A9AE5-D487-4AB0-BC80-E329626A8C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="227">
   <si>
     <t>Курс</t>
   </si>
@@ -675,9 +675,6 @@
   </si>
   <si>
     <t>809 ист</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ф</t>
   </si>
   <si>
     <t xml:space="preserve">Векторный и тензорный анализ </t>
@@ -2564,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C2F2DF-FE59-47D0-BDF3-50F27700A4C2}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2698,7 +2695,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" t="s">
         <v>121</v>
@@ -2779,7 +2776,7 @@
         <v>52</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -3119,7 +3116,7 @@
         <v>192</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H20" s="21">
         <v>328</v>
@@ -3149,7 +3146,7 @@
         <v>192</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H21" s="21">
         <v>327</v>
@@ -3181,7 +3178,7 @@
         <v>192</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H22" s="21">
         <v>328</v>
@@ -3213,7 +3210,7 @@
         <v>52</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H23" s="21">
         <v>143</v>
@@ -3402,7 +3399,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
@@ -3432,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
@@ -3442,7 +3439,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>141</v>
@@ -3462,7 +3459,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21" t="s">
@@ -3475,7 +3472,7 @@
         <v>98</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H32" s="21">
         <v>317</v>
@@ -3492,7 +3489,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
@@ -3505,7 +3502,7 @@
         <v>98</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H33" s="21">
         <v>317</v>
@@ -3543,7 +3540,7 @@
         <v>407</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J34" s="21">
         <v>1</v>
@@ -3575,7 +3572,7 @@
         <v>407</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J35" s="21">
         <v>1</v>
@@ -3607,7 +3604,7 @@
         <v>406</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J36" s="21">
         <v>1</v>
@@ -3628,7 +3625,7 @@
         <v>3</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>80</v>
@@ -3699,7 +3696,7 @@
         <v>404</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J39" s="21">
         <v>1</v>
@@ -3729,7 +3726,7 @@
         <v>407</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J40" s="21">
         <v>1</v>
@@ -3780,7 +3777,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>45</v>
@@ -3805,8 +3802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC10DB3-35FC-4C6A-8252-97FB7BCAAC35}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4099,7 +4096,7 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H10">
         <v>405</v>
@@ -4404,7 +4401,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H20" s="21">
         <v>318</v>
@@ -4523,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>141</v>
@@ -4624,7 +4621,7 @@
         <v>407</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J27" s="21">
         <v>1</v>
@@ -4656,7 +4653,7 @@
         <v>405</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J28" s="21">
         <v>1</v>
@@ -4746,7 +4743,7 @@
         <v>405</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J31" s="21">
         <v>1</v>
@@ -4774,7 +4771,7 @@
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J32" s="21">
         <v>1</v>
@@ -4825,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>45</v>
@@ -4935,7 +4932,7 @@
         <v>135</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H2" s="21">
         <v>405</v>
@@ -4965,7 +4962,7 @@
         <v>135</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3" s="21">
         <v>405</v>
@@ -9395,8 +9392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11062,8 +11059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11636,7 +11633,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21" t="s">
@@ -11646,10 +11643,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="21" t="s">
         <v>212</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>213</v>
       </c>
       <c r="H20" s="21">
         <v>317</v>
@@ -11666,7 +11663,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
@@ -11696,7 +11693,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21" t="s">
@@ -11706,10 +11703,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="21" t="s">
         <v>212</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>213</v>
       </c>
       <c r="H22" s="21">
         <v>329</v>
@@ -11726,7 +11723,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
@@ -11771,7 +11768,7 @@
         <v>407</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J24" s="21">
         <v>1</v>
@@ -11822,7 +11819,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>80</v>
@@ -11906,7 +11903,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>80</v>
@@ -12043,8 +12040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12786,7 +12783,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21" t="s">
@@ -12796,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G28" s="21" t="s">
         <v>141</v>
@@ -12816,7 +12813,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
@@ -12826,7 +12823,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>141</v>
@@ -12846,7 +12843,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
@@ -12859,7 +12856,7 @@
         <v>55</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H30" s="21">
         <v>329</v>
@@ -12876,7 +12873,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21" t="s">
@@ -12889,7 +12886,7 @@
         <v>55</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H31" s="21">
         <v>329</v>
@@ -12927,7 +12924,7 @@
         <v>406</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J32" s="21">
         <v>1</v>
@@ -12959,7 +12956,7 @@
         <v>405</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J33" s="21">
         <v>1</v>
@@ -13010,7 +13007,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>26</v>
@@ -13019,7 +13016,7 @@
         <v>328</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J35" s="21">
         <v>1</v>
@@ -13079,7 +13076,7 @@
         <v>405</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J37" s="21">
         <v>1</v>
@@ -13103,7 +13100,7 @@
         <v>73</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H38" s="21">
         <v>406</v>
@@ -13159,8 +13156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50098D-1ABF-4068-8B74-18169C8AD7A1}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13858,7 +13855,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21" t="s">
@@ -13868,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>141</v>
@@ -13888,7 +13885,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21" t="s">
@@ -13918,7 +13915,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21" t="s">
@@ -13928,10 +13925,10 @@
         <v>3</v>
       </c>
       <c r="F26" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="21" t="s">
         <v>212</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>213</v>
       </c>
       <c r="H26" s="21">
         <v>329</v>
@@ -13948,7 +13945,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21" t="s">
@@ -13993,7 +13990,7 @@
         <v>404</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J28" s="21">
         <v>1</v>
@@ -14055,7 +14052,7 @@
         <v>405</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J30" s="21">
         <v>1</v>
@@ -14087,7 +14084,7 @@
         <v>328</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J31" s="21">
         <v>1</v>
@@ -14141,7 +14138,7 @@
         <v>405</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J33" s="21">
         <v>1</v>
@@ -14201,7 +14198,7 @@
         <v>404</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J35" s="21">
         <v>1</v>
@@ -14306,7 +14303,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>92</v>

--- a/asuschedule/document.xlsx
+++ b/asuschedule/document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\ASU_Schedule\asuschedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BD51A0-4E82-44CE-86BB-18E35EAC15A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FB99D8-7FD8-4D0B-8578-F64F0B04229B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="238">
   <si>
     <t>Курс</t>
   </si>
@@ -730,6 +730,33 @@
   </si>
   <si>
     <t>Киздермишов А.А.</t>
+  </si>
+  <si>
+    <t>Информационные сети и телекоммуникации</t>
+  </si>
+  <si>
+    <t>Хоконов А.Х.</t>
+  </si>
+  <si>
+    <t>Коржаков В. Е.</t>
+  </si>
+  <si>
+    <t>Шопин А.В.</t>
+  </si>
+  <si>
+    <t>Физика элементарных частиц. Стандартная модель</t>
+  </si>
+  <si>
+    <t>Электродинамические процессы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Физика элементарныхчастиц. Стандартная модель</t>
+  </si>
+  <si>
+    <t>Копоть Л.В.</t>
   </si>
 </sst>
 </file>
@@ -2532,7 +2559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C2F2DF-FE59-47D0-BDF3-50F27700A4C2}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -2594,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2765,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2872,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3758,7 +3785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC10DB3-35FC-4C6A-8252-97FB7BCAAC35}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -4811,10 +4838,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059CF91E-6117-45C5-82C8-C939713C8D5E}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4913,7 +4940,124 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6">
+        <v>327</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7">
+        <v>404</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9312,7 +9456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -10970,10 +11114,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11072,7 +11216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11915,7 +12059,391 @@
         <v>1</v>
       </c>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34">
+        <v>406</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35">
+        <v>324</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36">
+        <v>316</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37">
+        <v>404</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38">
+        <v>405</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39">
+        <v>329</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40">
+        <v>329</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41">
+        <v>407</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42">
+        <v>405</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43">
+        <v>329</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44">
+        <v>405</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>229</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45">
+        <v>405</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
+        <v>232</v>
+      </c>
+      <c r="H46">
+        <v>511</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -11927,10 +12455,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11991,7 +12519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13052,7 +13580,362 @@
         <v>1</v>
       </c>
     </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>233</v>
+      </c>
+      <c r="G40" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>233</v>
+      </c>
+      <c r="G41" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42">
+        <v>319</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43">
+        <v>329</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" t="s">
+        <v>232</v>
+      </c>
+      <c r="H44">
+        <v>511</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" t="s">
+        <v>232</v>
+      </c>
+      <c r="H45">
+        <v>511</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" t="s">
+        <v>225</v>
+      </c>
+      <c r="H46">
+        <v>404</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G47" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47">
+        <v>511</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" t="s">
+        <v>225</v>
+      </c>
+      <c r="H48">
+        <v>407</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" t="s">
+        <v>232</v>
+      </c>
+      <c r="H49">
+        <v>511</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" t="s">
+        <v>99</v>
+      </c>
+      <c r="H50">
+        <v>318</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51">
+        <v>404</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -13064,10 +13947,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50098D-1ABF-4068-8B74-18169C8AD7A1}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13166,7 +14049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -14217,7 +15100,390 @@
       <c r="F40" t="s">
         <v>86</v>
       </c>
+      <c r="I40" t="s">
+        <v>235</v>
+      </c>
       <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G41" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>236</v>
+      </c>
+      <c r="G42" t="s">
+        <v>230</v>
+      </c>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s">
+        <v>230</v>
+      </c>
+      <c r="H43">
+        <v>319</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44">
+        <v>405</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45">
+        <v>328</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" t="s">
+        <v>80</v>
+      </c>
+      <c r="H47">
+        <v>405</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48">
+        <v>328</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49">
+        <v>328</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" t="s">
+        <v>237</v>
+      </c>
+      <c r="H50">
+        <v>407</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51">
+        <v>328</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>174</v>
+      </c>
+      <c r="G52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H52">
+        <v>318</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" t="s">
+        <v>232</v>
+      </c>
+      <c r="H53">
+        <v>511</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53">
         <v>1</v>
       </c>
     </row>

--- a/asuschedule/document.xlsx
+++ b/asuschedule/document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\ASU_Schedule\asuschedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F4E0E2-9583-4536-9109-0A49C012ED2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75C742F-3DED-4B78-BE81-0F0A7A0671D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="200">
   <si>
     <t>Курс</t>
   </si>
@@ -186,15 +186,9 @@
     <t>Иностр. Язык</t>
   </si>
   <si>
-    <t>Шамбин А.И</t>
-  </si>
-  <si>
     <t>Оптика</t>
   </si>
   <si>
-    <t>Жукова И.Н</t>
-  </si>
-  <si>
     <t>Линейные и нелинейные уравнения физики</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
   </si>
   <si>
     <t>Технология программирования</t>
-  </si>
-  <si>
-    <t>Плисенко О.А</t>
   </si>
   <si>
     <t>Методы оптимизации</t>
@@ -394,9 +385,6 @@
     <t>Физический практикум по молекулярной физике</t>
   </si>
   <si>
-    <t>Хандожко А.А</t>
-  </si>
-  <si>
     <t>Технологии искусственного интеллекта</t>
   </si>
   <si>
@@ -407,9 +395,6 @@
   </si>
   <si>
     <t>Операционные системы</t>
-  </si>
-  <si>
-    <t>Атагян Д.А</t>
   </si>
   <si>
     <t>Лаб.раб</t>
@@ -479,9 +464,6 @@
     <t>Теория систем и системный анализ</t>
   </si>
   <si>
-    <t>Калашникова С.И</t>
-  </si>
-  <si>
     <t>Психология профессионального саморазвития</t>
   </si>
   <si>
@@ -537,9 +519,6 @@
     <t>Практикум по математике</t>
   </si>
   <si>
-    <t>Шамбина С.В</t>
-  </si>
-  <si>
     <t>ТВМС</t>
   </si>
   <si>
@@ -612,24 +591,12 @@
 государственности</t>
   </si>
   <si>
-    <t>Симбулетова Р.К</t>
-  </si>
-  <si>
     <t>Теоретическая механика</t>
   </si>
   <si>
-    <t xml:space="preserve">Онищенко С.В. </t>
-  </si>
-  <si>
     <t>Хачецуков З.М.</t>
   </si>
   <si>
-    <t>Довгаль В.А</t>
-  </si>
-  <si>
-    <t>Хабекирова З.С</t>
-  </si>
-  <si>
     <t>Довгаль В.А.</t>
   </si>
   <si>
@@ -639,9 +606,6 @@
     <t>Коржаков А.В.</t>
   </si>
   <si>
-    <t>Коржаков А.В</t>
-  </si>
-  <si>
     <t>Бучацкий П.Ю. / Атагян Д.А.</t>
   </si>
   <si>
@@ -654,9 +618,6 @@
     <t>Хоконов А.Х.</t>
   </si>
   <si>
-    <t>Коржаков В. Е.</t>
-  </si>
-  <si>
     <t>Шопин А.В.</t>
   </si>
   <si>
@@ -675,31 +636,13 @@
     <t>Копоть Л.В.</t>
   </si>
   <si>
-    <t>Коржакова С.А</t>
-  </si>
-  <si>
-    <t>Бучацкий П.Ю. / Атагян Д.А</t>
-  </si>
-  <si>
-    <t>Хоконов А.Х</t>
-  </si>
-  <si>
     <t>Элементарная физика (Введение в физику)</t>
   </si>
   <si>
     <t>Коржаков В.Е.</t>
   </si>
   <si>
-    <t>Копылова Ю.В</t>
-  </si>
-  <si>
     <t>Хакунова Э.Х.</t>
-  </si>
-  <si>
-    <t>Ушхо А.Д</t>
-  </si>
-  <si>
-    <t>Джамирзе Н.К</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1128,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
@@ -1489,7 +1432,7 @@
         <v>41</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="H16" s="5">
         <v>407</v>
@@ -1581,7 +1524,7 @@
         <v>46</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>31</v>
@@ -1611,7 +1554,7 @@
         <v>47</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="H20" s="5">
         <v>511</v>
@@ -1643,7 +1586,7 @@
         <v>48</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H21" s="5">
         <v>406</v>
@@ -1675,7 +1618,7 @@
         <v>43</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H22" s="5">
         <v>329</v>
@@ -1701,10 +1644,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="H23" s="2">
         <v>317</v>
@@ -1730,10 +1673,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="H24" s="2">
         <v>329</v>
@@ -1759,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>21</v>
@@ -1788,7 +1731,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -1799,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -1811,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>26</v>
@@ -1820,7 +1763,7 @@
         <v>328</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -1831,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -1840,10 +1783,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H28" s="2">
         <v>405</v>
@@ -1860,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -1872,16 +1815,16 @@
         <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H29" s="2">
         <v>407</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -1892,7 +1835,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -1901,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -1912,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>11</v>
@@ -1921,10 +1864,10 @@
         <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H31" s="2">
         <v>405</v>
@@ -1941,7 +1884,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>11</v>
@@ -1950,16 +1893,16 @@
         <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H32" s="2">
         <v>511</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -1970,7 +1913,7 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>11</v>
@@ -1979,7 +1922,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -1990,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>11</v>
@@ -1999,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H34" s="2">
         <v>407</v>
@@ -2019,7 +1962,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>11</v>
@@ -2028,10 +1971,10 @@
         <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H35" s="2">
         <v>406</v>
@@ -2048,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>11</v>
@@ -2057,10 +2000,10 @@
         <v>3</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H36" s="2">
         <v>404</v>
@@ -2077,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>11</v>
@@ -2086,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -2106,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>44</v>
@@ -2135,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>39</v>
@@ -2164,10 +2107,10 @@
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="H40" s="2">
         <v>316</v>
@@ -2184,7 +2127,7 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>11</v>
@@ -2193,10 +2136,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H41" s="2">
         <v>405</v>
@@ -2213,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>11</v>
@@ -2222,10 +2165,10 @@
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H42" s="2">
         <v>404</v>
@@ -2242,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
@@ -2254,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H43" s="2">
         <v>405</v>
@@ -2274,7 +2217,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>11</v>
@@ -2283,10 +2226,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H44" s="2">
         <v>405</v>
@@ -2303,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>11</v>
@@ -2312,10 +2255,10 @@
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H45" s="2">
         <v>404</v>
@@ -2332,7 +2275,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -2341,10 +2284,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H46" s="2">
         <v>405</v>
@@ -2361,7 +2304,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
@@ -2370,10 +2313,10 @@
         <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H47" s="2">
         <v>405</v>
@@ -2390,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -2399,10 +2342,10 @@
         <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H48" s="2">
         <v>405</v>
@@ -2419,7 +2362,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
@@ -2428,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J49" s="1">
         <v>0</v>
@@ -2439,7 +2382,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -2448,7 +2391,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J50" s="1">
         <v>0</v>
@@ -2459,7 +2402,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>11</v>
@@ -2468,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J51" s="1">
         <v>0</v>
@@ -2479,7 +2422,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -2488,7 +2431,7 @@
         <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J52" s="1">
         <v>0</v>
@@ -2505,7 +2448,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2554,13 +2497,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -2574,7 +2517,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2603,16 +2546,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
@@ -2632,16 +2575,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H5">
         <v>327</v>
@@ -2661,13 +2604,13 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2684,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -2716,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -2725,7 +2668,7 @@
         <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>319</v>
@@ -2745,16 +2688,16 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H9" t="s">
         <v>31</v>
@@ -2774,16 +2717,16 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H10">
         <v>327</v>
@@ -2803,13 +2746,13 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2823,13 +2766,13 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -2852,16 +2795,16 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H13">
         <v>405</v>
@@ -2884,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -2893,7 +2836,7 @@
         <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H14">
         <v>319</v>
@@ -2916,13 +2859,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
         <v>26</v>
@@ -2945,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2954,7 +2897,7 @@
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H16">
         <v>319</v>
@@ -2974,16 +2917,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H17">
         <v>329</v>
@@ -3003,7 +2946,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -3032,13 +2975,13 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -3055,16 +2998,16 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H20">
         <v>328</v>
@@ -3084,16 +3027,16 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G21" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H21">
         <v>327</v>
@@ -3116,16 +3059,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H22">
         <v>328</v>
@@ -3148,7 +3091,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -3157,7 +3100,7 @@
         <v>48</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H23">
         <v>143</v>
@@ -3177,13 +3120,13 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -3197,16 +3140,16 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H25">
         <v>405</v>
@@ -3229,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -3238,10 +3181,10 @@
         <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -3261,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -3270,10 +3213,10 @@
         <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H27" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -3290,7 +3233,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -3319,13 +3262,13 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -3339,16 +3282,16 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H30">
         <v>329</v>
@@ -3368,16 +3311,16 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G31" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H31">
         <v>324</v>
@@ -3397,16 +3340,16 @@
         <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H32">
         <v>317</v>
@@ -3426,16 +3369,16 @@
         <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E33">
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H33">
         <v>317</v>
@@ -3452,28 +3395,28 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H34">
         <v>407</v>
       </c>
       <c r="I34" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -3484,28 +3427,28 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H35">
         <v>407</v>
       </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -3516,28 +3459,28 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H36">
         <v>406</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -3548,19 +3491,19 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E37">
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H37">
         <v>404</v>
@@ -3577,22 +3520,22 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E38">
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H38">
         <v>405</v>
@@ -3609,25 +3552,25 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H39">
         <v>404</v>
       </c>
       <c r="I39" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -3638,25 +3581,25 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E40">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H40">
         <v>407</v>
       </c>
       <c r="I40" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3667,19 +3610,19 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H41">
         <v>406</v>
@@ -3696,16 +3639,16 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -3731,7 +3674,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3780,7 +3723,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3789,10 +3732,10 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -3809,7 +3752,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3838,7 +3781,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -3867,7 +3810,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3876,10 +3819,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -3896,16 +3839,16 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>134</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>139</v>
-      </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H6">
         <v>327</v>
@@ -3925,7 +3868,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -3957,7 +3900,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -3986,7 +3929,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3995,10 +3938,10 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -4015,7 +3958,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4024,7 +3967,7 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="H10">
         <v>405</v>
@@ -4044,7 +3987,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -4053,7 +3996,7 @@
         <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H11">
         <v>327</v>
@@ -4073,7 +4016,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -4102,16 +4045,16 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H13">
         <v>324</v>
@@ -4131,7 +4074,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -4163,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4195,16 +4138,16 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H16">
         <v>406</v>
@@ -4221,16 +4164,16 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H17">
         <v>407</v>
@@ -4253,16 +4196,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H18">
         <v>328</v>
@@ -4285,13 +4228,13 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -4314,7 +4257,7 @@
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -4323,7 +4266,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H20">
         <v>318</v>
@@ -4343,13 +4286,13 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E21">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
         <v>39</v>
@@ -4375,16 +4318,16 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H22">
         <v>404</v>
@@ -4404,13 +4347,13 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
         <v>44</v>
@@ -4433,16 +4376,16 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H24">
         <v>317</v>
@@ -4462,13 +4405,13 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
         <v>21</v>
@@ -4491,13 +4434,13 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
         <v>21</v>
@@ -4517,28 +4460,28 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H27">
         <v>407</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -4549,28 +4492,28 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H28">
         <v>405</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -4581,19 +4524,19 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H29">
         <v>406</v>
@@ -4610,19 +4553,19 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H30">
         <v>406</v>
@@ -4639,25 +4582,25 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H31">
         <v>405</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -4668,22 +4611,22 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E32">
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -4694,19 +4637,19 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H33">
         <v>327</v>
@@ -4723,16 +4666,16 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G34" t="s">
         <v>44</v>
@@ -4752,19 +4695,19 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H35">
         <v>407</v>
@@ -4835,16 +4778,16 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H2">
         <v>405</v>
@@ -4864,16 +4807,16 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H3">
         <v>405</v>
@@ -4893,16 +4836,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
@@ -4922,16 +4865,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -4948,19 +4891,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H6">
         <v>327</v>
@@ -4977,19 +4920,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H7">
         <v>404</v>
@@ -5011,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5064,13 +5007,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -5084,7 +5027,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -5113,7 +5056,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -5142,16 +5085,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>31</v>
@@ -5171,13 +5114,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -5194,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -5203,10 +5146,10 @@
         <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>17</v>
@@ -5226,7 +5169,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -5258,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -5284,13 +5227,13 @@
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J10" s="1">
         <v>0</v>
@@ -5304,19 +5247,19 @@
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
@@ -5334,7 +5277,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -5362,7 +5305,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -5392,13 +5335,13 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14" s="4">
         <v>3</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>39</v>
@@ -5422,13 +5365,13 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" s="4">
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -5446,7 +5389,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -5478,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17" s="4">
         <v>3</v>
@@ -5487,7 +5430,7 @@
         <v>43</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H17" s="5">
         <v>329</v>
@@ -5510,19 +5453,19 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E18" s="4">
         <v>3</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>42</v>
@@ -5540,13 +5483,13 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E19" s="4">
         <v>4</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -5564,7 +5507,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -5573,7 +5516,7 @@
         <v>30</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>31</v>
@@ -5594,7 +5537,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
@@ -5603,7 +5546,7 @@
         <v>43</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H21" s="5">
         <v>327</v>
@@ -5624,13 +5567,13 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22" s="4">
         <v>4</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -5647,16 +5590,16 @@
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="H23" s="2">
         <v>317</v>
@@ -5676,16 +5619,16 @@
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="H24" s="2">
         <v>317</v>
@@ -5705,16 +5648,16 @@
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="H25" s="2">
         <v>317</v>
@@ -5734,13 +5677,13 @@
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1">
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>21</v>
@@ -5760,19 +5703,19 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>26</v>
@@ -5781,7 +5724,7 @@
         <v>328</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -5792,28 +5735,28 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H28" s="2">
         <v>406</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -5824,28 +5767,28 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H29" s="2">
         <v>404</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -5856,28 +5799,28 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H30" s="2">
         <v>405</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -5888,28 +5831,28 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1">
         <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1">
         <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H31" s="2">
         <v>405</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -5920,25 +5863,25 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H32" s="2">
         <v>406</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -5949,25 +5892,25 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1">
         <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H33" s="2">
         <v>405</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -5978,25 +5921,25 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H34" s="2">
         <v>407</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -6007,16 +5950,16 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>44</v>
@@ -6036,25 +5979,25 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H36" s="2">
         <v>407</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -6068,13 +6011,13 @@
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>39</v>
@@ -6097,13 +6040,13 @@
         <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>39</v>
@@ -6126,13 +6069,13 @@
         <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>19</v>
@@ -6152,22 +6095,22 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H40" s="2">
         <v>404</v>
@@ -6184,19 +6127,19 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>31</v>
@@ -6213,22 +6156,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H42" s="2">
         <v>404</v>
@@ -6245,19 +6188,19 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>31</v>
@@ -6274,19 +6217,19 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H44" s="2">
         <v>406</v>
@@ -6303,19 +6246,19 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="H45" s="2">
         <v>407</v>
@@ -6332,19 +6275,19 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E46" s="1">
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>31</v>
@@ -6361,19 +6304,19 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H47" s="2">
         <v>511</v>
@@ -6390,19 +6333,19 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H48" s="2">
         <v>405</v>
@@ -6419,19 +6362,19 @@
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E49" s="1">
         <v>2</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H49" s="2">
         <v>318</v>
@@ -6454,7 +6397,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6506,19 +6449,19 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -6535,16 +6478,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>31</v>
@@ -6564,19 +6507,19 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
@@ -6593,16 +6536,16 @@
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>31</v>
@@ -6622,19 +6565,19 @@
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>14</v>
@@ -6651,7 +6594,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -6683,19 +6626,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>27</v>
@@ -6715,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -6724,10 +6667,10 @@
         <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>17</v>
@@ -6744,19 +6687,19 @@
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>17</v>
@@ -6773,19 +6716,19 @@
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>14</v>
@@ -6803,16 +6746,16 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="H12" s="5">
         <v>329</v>
@@ -6833,16 +6776,16 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="H13" s="5">
         <v>329</v>
@@ -6863,16 +6806,16 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E14" s="4">
         <v>3</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="H14" s="5">
         <v>329</v>
@@ -6893,16 +6836,16 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H15" s="5">
         <v>327</v>
@@ -6923,7 +6866,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -6932,7 +6875,7 @@
         <v>41</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H16" s="5">
         <v>327</v>
@@ -6955,7 +6898,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E17" s="4">
         <v>3</v>
@@ -6964,7 +6907,7 @@
         <v>41</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="H17" s="5">
         <v>407</v>
@@ -6987,13 +6930,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>26</v>
@@ -7019,16 +6962,16 @@
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H19" s="5">
         <v>404</v>
@@ -7049,13 +6992,13 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>39</v>
@@ -7079,16 +7022,16 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E21" s="4">
         <v>3</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H21" s="5">
         <v>327</v>
@@ -7111,22 +7054,22 @@
         <v>2</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E22" s="4">
         <v>4</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="H22" s="5">
         <v>328</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J22" s="6">
         <v>0</v>
@@ -7140,16 +7083,16 @@
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H23" s="2">
         <v>317</v>
@@ -7169,16 +7112,16 @@
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H24" s="2">
         <v>317</v>
@@ -7198,13 +7141,13 @@
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>39</v>
@@ -7227,13 +7170,13 @@
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E26" s="1">
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J26" s="6">
         <v>0</v>
@@ -7244,28 +7187,28 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H27" s="2">
         <v>407</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J27" s="6">
         <v>0</v>
@@ -7276,28 +7219,28 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H28" s="2">
         <v>404</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J28" s="6">
         <v>0</v>
@@ -7308,19 +7251,19 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H29" s="2">
         <v>327</v>
@@ -7337,16 +7280,16 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1">
         <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J30" s="6">
         <v>0</v>
@@ -7357,19 +7300,19 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E31" s="1">
         <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H31" s="2">
         <v>327</v>
@@ -7386,16 +7329,16 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J32" s="6">
         <v>0</v>
@@ -7406,19 +7349,19 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H33" s="2">
         <v>327</v>
@@ -7435,19 +7378,19 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E34" s="1">
         <v>2</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H34" s="2">
         <v>406</v>
@@ -7464,19 +7407,19 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E35" s="1">
         <v>3</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H35" s="2">
         <v>318</v>
@@ -7493,16 +7436,16 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E36" s="1">
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J36" s="6">
         <v>0</v>
@@ -7513,22 +7456,22 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H37" s="2">
         <v>405</v>
@@ -7545,19 +7488,19 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H38" s="2">
         <v>405</v>
@@ -7574,22 +7517,22 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H39" s="2">
         <v>328</v>
@@ -7606,22 +7549,22 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40" s="1">
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H40" s="2">
         <v>404</v>
@@ -7638,19 +7581,19 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H41" s="2">
         <v>405</v>
@@ -7667,19 +7610,19 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H42" s="2">
         <v>405</v>
@@ -7696,19 +7639,19 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H43" s="2">
         <v>511</v>
@@ -7725,19 +7668,19 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E44" s="1">
         <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H44" s="2">
         <v>405</v>
@@ -7754,19 +7697,19 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E45" s="1">
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H45" s="2">
         <v>404</v>
@@ -7783,19 +7726,19 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H46" s="2">
         <v>318</v>
@@ -7812,19 +7755,19 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H47" s="2">
         <v>511</v>
@@ -7846,8 +7789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7900,13 +7843,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J2" s="6">
         <v>0</v>
@@ -7921,7 +7864,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E3" s="8">
         <v>2</v>
@@ -7933,7 +7876,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>17</v>
@@ -7950,7 +7893,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E4" s="8">
         <v>3</v>
@@ -7962,7 +7905,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>14</v>
@@ -7979,19 +7922,19 @@
         <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E5" s="8">
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>14</v>
@@ -8008,13 +7951,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J6" s="6">
         <v>0</v>
@@ -8031,7 +7974,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E7" s="8">
         <v>2</v>
@@ -8043,7 +7986,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>27</v>
@@ -8063,7 +8006,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E8" s="8">
         <v>2</v>
@@ -8072,10 +8015,10 @@
         <v>48</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>17</v>
@@ -8084,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -8092,19 +8035,19 @@
         <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="8">
-        <v>3</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>17</v>
@@ -8121,13 +8064,13 @@
         <v>28</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
@@ -8141,13 +8084,13 @@
         <v>28</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E11" s="8">
         <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
@@ -8170,7 +8113,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E12" s="8">
         <v>3</v>
@@ -8179,7 +8122,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>31</v>
@@ -8199,16 +8142,16 @@
         <v>28</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E13" s="8">
         <v>4</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>31</v>
@@ -8229,7 +8172,7 @@
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E14" s="13">
         <v>1</v>
@@ -8238,7 +8181,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="H14" s="14">
         <v>324</v>
@@ -8259,16 +8202,16 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E15" s="13">
         <v>2</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H15" s="14">
         <v>319</v>
@@ -8289,7 +8232,7 @@
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E16" s="13">
         <v>3</v>
@@ -8298,7 +8241,7 @@
         <v>48</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H16" s="14">
         <v>319</v>
@@ -8319,13 +8262,13 @@
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E17" s="13">
         <v>4</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
@@ -8345,16 +8288,16 @@
         <v>1</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E18" s="13">
         <v>1</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H18" s="14">
         <v>407</v>
@@ -8377,16 +8320,16 @@
         <v>1</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E19" s="13">
         <v>2</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H19" s="14">
         <v>328</v>
@@ -8409,22 +8352,22 @@
         <v>2</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E20" s="13">
         <v>2</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H20" s="14">
         <v>407</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J20" s="6">
         <v>0</v>
@@ -8441,19 +8384,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E21" s="13">
         <v>3</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>42</v>
@@ -8473,16 +8416,16 @@
         <v>2</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E22" s="13">
         <v>3</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H22" s="14">
         <v>328</v>
@@ -8503,13 +8446,13 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E23" s="13">
         <v>4</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="14"/>
@@ -8527,16 +8470,16 @@
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E24" s="13">
         <v>1</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H24" s="14">
         <v>327</v>
@@ -8559,7 +8502,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E25" s="13">
         <v>2</v>
@@ -8568,10 +8511,10 @@
         <v>48</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>17</v>
@@ -8591,7 +8534,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E26" s="13">
         <v>2</v>
@@ -8600,10 +8543,10 @@
         <v>48</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>17</v>
@@ -8621,13 +8564,13 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E27" s="13">
         <v>3</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>26</v>
@@ -8651,13 +8594,13 @@
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E28" s="13">
         <v>4</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="14"/>
@@ -8674,16 +8617,16 @@
         <v>10</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E29" s="8">
         <v>1</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H29" s="9">
         <v>317</v>
@@ -8703,16 +8646,16 @@
         <v>10</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E30" s="8">
         <v>2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H30" s="9">
         <v>329</v>
@@ -8732,13 +8675,13 @@
         <v>10</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E31" s="8">
         <v>3</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>44</v>
@@ -8761,13 +8704,13 @@
         <v>10</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E32" s="8">
         <v>4</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>39</v>
@@ -8787,22 +8730,22 @@
         <v>3</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="8">
         <v>2</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E33" s="8">
         <v>1</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H33" s="9">
         <v>405</v>
@@ -8819,19 +8762,19 @@
         <v>3</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E34" s="8">
         <v>2</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H34" s="9">
         <v>327</v>
@@ -8848,28 +8791,28 @@
         <v>3</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35" s="8">
         <v>1</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E35" s="8">
         <v>3</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H35" s="9">
         <v>404</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J35" s="6">
         <v>0</v>
@@ -8880,22 +8823,22 @@
         <v>3</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E36" s="8">
         <v>4</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H36" s="9">
         <v>405</v>
@@ -8912,16 +8855,16 @@
         <v>3</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E37" s="8">
         <v>1</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>26</v>
@@ -8941,19 +8884,19 @@
         <v>3</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E38" s="8">
         <v>2</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H38" s="9">
         <v>327</v>
@@ -8970,19 +8913,19 @@
         <v>3</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E39" s="8">
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H39" s="9">
         <v>404</v>
@@ -8999,19 +8942,19 @@
         <v>3</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E40" s="8">
-        <v>2</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="G40" s="8" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H40" s="9">
         <v>406</v>
@@ -9028,25 +8971,25 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>17</v>
@@ -9060,22 +9003,22 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1">
         <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H42" s="2">
         <v>511</v>
@@ -9092,22 +9035,22 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H43" s="2">
         <v>511</v>
@@ -9124,22 +9067,22 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="H44" s="2">
         <v>407</v>
@@ -9156,20 +9099,20 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E45" s="1">
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="H45" s="2">
         <v>327</v>
@@ -9186,20 +9129,20 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E46" s="1">
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H46" s="2">
         <v>406</v>
@@ -9216,20 +9159,20 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H47" s="2">
         <v>318</v>
@@ -9246,20 +9189,20 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E48" s="1">
         <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="H48" s="2">
         <v>327</v>
@@ -9276,20 +9219,20 @@
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>31</v>
@@ -9306,20 +9249,20 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="H50" s="2">
         <v>404</v>
@@ -9336,20 +9279,20 @@
         <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H51" s="2">
         <v>406</v>
@@ -9366,20 +9309,20 @@
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E52" s="1">
         <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="H52" s="2">
         <v>327</v>
@@ -9401,8 +9344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9454,7 +9397,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -9463,10 +9406,10 @@
         <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
@@ -9483,7 +9426,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -9495,7 +9438,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>17</v>
@@ -9512,7 +9455,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -9541,7 +9484,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
@@ -9553,7 +9496,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>17</v>
@@ -9570,7 +9513,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -9579,10 +9522,10 @@
         <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>14</v>
@@ -9599,16 +9542,16 @@
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>31</v>
@@ -9628,7 +9571,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -9657,7 +9600,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -9666,10 +9609,10 @@
         <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>14</v>
@@ -9686,19 +9629,19 @@
         <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>17</v>
@@ -9715,19 +9658,19 @@
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>17</v>
@@ -9747,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -9756,10 +9699,10 @@
         <v>48</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>17</v>
@@ -9779,7 +9722,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
@@ -9788,10 +9731,10 @@
         <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>17</v>
@@ -9809,16 +9752,16 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H14" s="5">
         <v>329</v>
@@ -9839,16 +9782,16 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H15" s="5">
         <v>329</v>
@@ -9869,7 +9812,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E16" s="4">
         <v>3</v>
@@ -9878,7 +9821,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="H16" s="5">
         <v>324</v>
@@ -9901,16 +9844,16 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="H17" s="5">
         <v>407</v>
@@ -9931,7 +9874,7 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -9963,7 +9906,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E19" s="4">
         <v>3</v>
@@ -9993,7 +9936,7 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -10002,7 +9945,7 @@
         <v>30</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>31</v>
@@ -10023,16 +9966,16 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="H21" s="5">
         <v>233</v>
@@ -10053,16 +9996,16 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E22" s="4">
         <v>3</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H22" s="5">
         <v>327</v>
@@ -10085,22 +10028,22 @@
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E23" s="4">
         <v>4</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H23" s="5">
         <v>328</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J23" s="6">
         <v>0</v>
@@ -10114,16 +10057,16 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H24" s="2">
         <v>319</v>
@@ -10143,16 +10086,16 @@
         <v>10</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H25" s="2">
         <v>324</v>
@@ -10172,16 +10115,16 @@
         <v>10</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="H26" s="2">
         <v>317</v>
@@ -10201,16 +10144,16 @@
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="H27" s="2">
         <v>317</v>
@@ -10227,28 +10170,28 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H28" s="2">
         <v>328</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J28" s="6">
         <v>0</v>
@@ -10259,28 +10202,28 @@
         <v>3</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H29" s="2">
         <v>406</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J29" s="6">
         <v>0</v>
@@ -10291,19 +10234,19 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H30" s="2">
         <v>406</v>
@@ -10320,25 +10263,25 @@
         <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H31" s="2">
         <v>405</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J31" s="6">
         <v>0</v>
@@ -10349,19 +10292,19 @@
         <v>3</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H32" s="2">
         <v>406</v>
@@ -10378,25 +10321,25 @@
         <v>3</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H33" s="2">
         <v>407</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J33" s="6">
         <v>0</v>
@@ -10407,16 +10350,16 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>44</v>
@@ -10436,19 +10379,19 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H35" s="2">
         <v>407</v>
@@ -10465,22 +10408,22 @@
         <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H36" s="2">
         <v>404</v>
@@ -10497,22 +10440,22 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H37" s="2">
         <v>328</v>
@@ -10529,22 +10472,22 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H38" s="2">
         <v>406</v>
@@ -10561,22 +10504,22 @@
         <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E39" s="1">
         <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="H39" s="2">
         <v>406</v>
@@ -10593,19 +10536,19 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="H40" s="2">
         <v>327</v>
@@ -10622,19 +10565,19 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H41" s="2">
         <v>328</v>
@@ -10651,19 +10594,19 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H42" s="2">
         <v>404</v>
@@ -10680,19 +10623,19 @@
         <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H43" s="2">
         <v>511</v>
@@ -10709,19 +10652,19 @@
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E44" s="1">
         <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H44" s="2">
         <v>329</v>
@@ -10738,19 +10681,19 @@
         <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H45" s="2">
         <v>318</v>
@@ -10767,19 +10710,19 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H46" s="2">
         <v>511</v>
@@ -10850,22 +10793,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H2" s="2">
         <v>405</v>
@@ -10882,19 +10825,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H3" s="2">
         <v>405</v>
@@ -10911,22 +10854,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H4" s="2">
         <v>405</v>
@@ -10943,19 +10886,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H5" s="2">
         <v>405</v>
@@ -10972,19 +10915,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H6" s="2">
         <v>405</v>
@@ -11001,19 +10944,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>31</v>
@@ -11030,19 +10973,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H8" s="2">
         <v>404</v>
@@ -11064,8 +11007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11532,7 +11475,7 @@
         <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16">
         <v>404</v>
@@ -11561,7 +11504,7 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H17" t="s">
         <v>31</v>
@@ -11587,10 +11530,10 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H18">
         <v>328</v>
@@ -11619,10 +11562,10 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H19">
         <v>328</v>
@@ -11648,10 +11591,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H20">
         <v>317</v>
@@ -11677,7 +11620,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
         <v>21</v>
@@ -11706,10 +11649,10 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G22" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H22">
         <v>329</v>
@@ -11735,7 +11678,7 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -11746,7 +11689,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -11758,16 +11701,16 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H24">
         <v>407</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -11778,7 +11721,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -11787,10 +11730,10 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H25">
         <v>405</v>
@@ -11807,7 +11750,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
@@ -11816,10 +11759,10 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H26">
         <v>405</v>
@@ -11836,7 +11779,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -11845,7 +11788,7 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -11856,7 +11799,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -11865,10 +11808,10 @@
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H28">
         <v>405</v>
@@ -11885,7 +11828,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
@@ -11894,10 +11837,10 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H29">
         <v>405</v>
@@ -11914,7 +11857,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -11923,7 +11866,7 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -11934,7 +11877,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -11943,10 +11886,10 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H31">
         <v>406</v>
@@ -11963,7 +11906,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -11972,10 +11915,10 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H32">
         <v>406</v>
@@ -11992,7 +11935,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -12001,7 +11944,7 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -12021,7 +11964,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s">
         <v>19</v>
@@ -12050,7 +11993,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -12079,10 +12022,10 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H36">
         <v>316</v>
@@ -12099,7 +12042,7 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -12111,10 +12054,10 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H37">
         <v>404</v>
@@ -12131,7 +12074,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -12143,10 +12086,10 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H38">
         <v>405</v>
@@ -12163,7 +12106,7 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -12172,10 +12115,10 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H39">
         <v>329</v>
@@ -12192,7 +12135,7 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -12201,10 +12144,10 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H40">
         <v>329</v>
@@ -12221,7 +12164,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -12230,10 +12173,10 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H41">
         <v>407</v>
@@ -12250,7 +12193,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
@@ -12259,10 +12202,10 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H42">
         <v>405</v>
@@ -12279,7 +12222,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
         <v>11</v>
@@ -12288,10 +12231,10 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H43">
         <v>329</v>
@@ -12308,7 +12251,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -12317,10 +12260,10 @@
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H44">
         <v>405</v>
@@ -12337,7 +12280,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -12346,10 +12289,10 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H45">
         <v>405</v>
@@ -12366,7 +12309,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -12375,10 +12318,10 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H46">
         <v>511</v>
@@ -12405,8 +12348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12455,13 +12398,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -12475,7 +12418,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -12504,7 +12447,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -12533,16 +12476,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -12562,13 +12505,13 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -12585,7 +12528,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -12594,10 +12537,10 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -12617,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -12649,7 +12592,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -12678,13 +12621,13 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -12698,16 +12641,16 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H11">
         <v>327</v>
@@ -12727,16 +12670,16 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
         <v>31</v>
@@ -12756,13 +12699,13 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
@@ -12785,7 +12728,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -12814,7 +12757,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -12843,16 +12786,16 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E16">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="H16">
         <v>324</v>
@@ -12872,13 +12815,13 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -12895,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -12904,7 +12847,7 @@
         <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H18">
         <v>407</v>
@@ -12927,16 +12870,16 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H19">
         <v>404</v>
@@ -12959,16 +12902,16 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H20">
         <v>404</v>
@@ -12991,7 +12934,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -13000,7 +12943,7 @@
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H21">
         <v>407</v>
@@ -13020,13 +12963,13 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -13040,7 +12983,7 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -13049,7 +12992,7 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H23">
         <v>327</v>
@@ -13069,16 +13012,16 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G24" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="H24">
         <v>406</v>
@@ -13101,7 +13044,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -13133,7 +13076,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -13142,10 +13085,10 @@
         <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H26" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -13162,13 +13105,13 @@
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -13182,16 +13125,16 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G28" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H28">
         <v>324</v>
@@ -13211,16 +13154,16 @@
         <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H29">
         <v>329</v>
@@ -13240,16 +13183,16 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H30">
         <v>329</v>
@@ -13269,16 +13212,16 @@
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H31">
         <v>329</v>
@@ -13295,28 +13238,28 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H32">
         <v>406</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -13327,28 +13270,28 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H33">
         <v>405</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -13359,19 +13302,19 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H34">
         <v>405</v>
@@ -13388,16 +13331,16 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G35" t="s">
         <v>26</v>
@@ -13406,7 +13349,7 @@
         <v>328</v>
       </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -13417,19 +13360,19 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H36">
         <v>405</v>
@@ -13446,25 +13389,25 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E37">
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H37">
         <v>405</v>
       </c>
       <c r="I37" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -13475,19 +13418,19 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
         <v>65</v>
       </c>
-      <c r="D38" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>68</v>
-      </c>
       <c r="G38" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H38">
         <v>406</v>
@@ -13504,19 +13447,19 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E39">
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H39">
         <v>407</v>
@@ -13536,16 +13479,16 @@
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G40" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H40" t="s">
         <v>31</v>
@@ -13565,16 +13508,16 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G41" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H41" t="s">
         <v>31</v>
@@ -13594,13 +13537,13 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -13620,22 +13563,22 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H43">
         <v>329</v>
@@ -13652,19 +13595,19 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G44" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H44">
         <v>511</v>
@@ -13681,22 +13624,22 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G45" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H45">
         <v>511</v>
@@ -13713,19 +13656,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H46">
         <v>404</v>
@@ -13742,19 +13685,19 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G47" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H47">
         <v>511</v>
@@ -13771,19 +13714,19 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G48" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H48">
         <v>407</v>
@@ -13800,19 +13743,19 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G49" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H49">
         <v>511</v>
@@ -13829,19 +13772,19 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E50">
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H50">
         <v>318</v>
@@ -13858,19 +13801,19 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G51" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H51">
         <v>404</v>
@@ -13898,7 +13841,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13947,16 +13890,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>319</v>
@@ -13976,7 +13919,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -14005,7 +13948,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -14034,16 +13977,16 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -14063,16 +14006,16 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H6">
         <v>406</v>
@@ -14092,7 +14035,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -14101,7 +14044,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H7">
         <v>404</v>
@@ -14121,16 +14064,16 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H8">
         <v>327</v>
@@ -14150,7 +14093,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -14179,7 +14122,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -14188,7 +14131,7 @@
         <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H10">
         <v>405</v>
@@ -14208,7 +14151,7 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -14220,7 +14163,7 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -14240,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -14249,10 +14192,10 @@
         <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -14272,7 +14215,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -14281,10 +14224,10 @@
         <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -14301,16 +14244,16 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H14">
         <v>329</v>
@@ -14330,16 +14273,16 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H15">
         <v>329</v>
@@ -14359,7 +14302,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -14388,16 +14331,16 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H17">
         <v>329</v>
@@ -14417,16 +14360,16 @@
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H18">
         <v>327</v>
@@ -14446,7 +14389,7 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -14475,7 +14418,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -14484,7 +14427,7 @@
         <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H20">
         <v>406</v>
@@ -14504,7 +14447,7 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -14533,16 +14476,16 @@
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G22" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H22" t="s">
         <v>31</v>
@@ -14565,16 +14508,16 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H23">
         <v>328</v>
@@ -14594,16 +14537,16 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H24">
         <v>324</v>
@@ -14623,16 +14566,16 @@
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H25">
         <v>324</v>
@@ -14652,16 +14595,16 @@
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G26" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H26">
         <v>329</v>
@@ -14681,13 +14624,13 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -14698,28 +14641,28 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H28">
         <v>404</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -14730,19 +14673,19 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H29">
         <v>406</v>
@@ -14759,28 +14702,28 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H30">
         <v>405</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -14791,28 +14734,28 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H31">
         <v>328</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -14823,16 +14766,16 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E32">
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -14843,25 +14786,25 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H33">
         <v>405</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -14872,19 +14815,19 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H34">
         <v>405</v>
@@ -14901,25 +14844,25 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H35">
         <v>404</v>
       </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -14930,16 +14873,16 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -14950,19 +14893,19 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H37">
         <v>327</v>
@@ -14979,19 +14922,19 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H38">
         <v>407</v>
@@ -15008,19 +14951,19 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H39">
         <v>318</v>
@@ -15037,19 +14980,19 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -15063,16 +15006,16 @@
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G41" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H41" t="s">
         <v>31</v>
@@ -15092,16 +15035,16 @@
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G42" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H42" t="s">
         <v>31</v>
@@ -15121,16 +15064,16 @@
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E43">
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G43" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H43">
         <v>319</v>
@@ -15147,22 +15090,22 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H44">
         <v>405</v>
@@ -15179,19 +15122,19 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H45">
         <v>328</v>
@@ -15208,22 +15151,22 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E46">
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -15237,19 +15180,19 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E47">
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H47">
         <v>405</v>
@@ -15266,19 +15209,19 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H48">
         <v>328</v>
@@ -15295,19 +15238,19 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H49">
         <v>328</v>
@@ -15324,19 +15267,19 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G50" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H50">
         <v>407</v>
@@ -15353,19 +15296,19 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G51" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H51">
         <v>328</v>
@@ -15382,19 +15325,19 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H52">
         <v>318</v>
@@ -15411,19 +15354,19 @@
         <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H53">
         <v>511</v>

--- a/asuschedule/document.xlsx
+++ b/asuschedule/document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\ASU_Schedule\asuschedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75C742F-3DED-4B78-BE81-0F0A7A0671D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221A1AF4-C183-4C6C-82E4-438CCC8A4892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-504" yWindow="1332" windowWidth="17280" windowHeight="8880" tabRatio="500" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="200">
   <si>
     <t>Курс</t>
   </si>
@@ -2447,7 +2447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C2F2DF-FE59-47D0-BDF3-50F27700A4C2}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3673,7 +3673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC10DB3-35FC-4C6A-8252-97FB7BCAAC35}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4728,7 +4728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059CF91E-6117-45C5-82C8-C939713C8D5E}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -11007,7 +11007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -12348,8 +12348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="D23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12994,8 +12994,8 @@
       <c r="G23" t="s">
         <v>86</v>
       </c>
-      <c r="H23">
-        <v>327</v>
+      <c r="H23" t="s">
+        <v>31</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
@@ -13840,7 +13840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50098D-1ABF-4068-8B74-18169C8AD7A1}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/asuschedule/document.xlsx
+++ b/asuschedule/document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\ASU_Schedule\asuschedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221A1AF4-C183-4C6C-82E4-438CCC8A4892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D940E20-CAE5-4293-A58B-5A5A27323580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-504" yWindow="1332" windowWidth="17280" windowHeight="8880" tabRatio="500" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="203">
   <si>
     <t>Курс</t>
   </si>
@@ -643,6 +643,15 @@
   </si>
   <si>
     <t>Хакунова Э.Х.</t>
+  </si>
+  <si>
+    <t>Общий физ.практикум по физике атомного ядра</t>
+  </si>
+  <si>
+    <t>Проектирование интеллектуальных систем управления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Семинар </t>
   </si>
 </sst>
 </file>
@@ -955,7 +964,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2445,10 +2454,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C2F2DF-FE59-47D0-BDF3-50F27700A4C2}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3663,6 +3672,380 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44">
+        <v>329</v>
+      </c>
+      <c r="I44" t="s">
+        <v>119</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45">
+        <v>329</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46">
+        <v>316</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" t="s">
+        <v>191</v>
+      </c>
+      <c r="H47">
+        <v>511</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>151</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" t="s">
+        <v>186</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49">
+        <v>407</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50">
+        <v>405</v>
+      </c>
+      <c r="I50" t="s">
+        <v>202</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" t="s">
+        <v>186</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52">
+        <v>405</v>
+      </c>
+      <c r="I52" t="s">
+        <v>202</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" t="s">
+        <v>186</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54">
+        <v>318</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>201</v>
+      </c>
+      <c r="G55" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55">
+        <v>318</v>
+      </c>
+      <c r="I55" t="s">
+        <v>119</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3671,10 +4054,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC10DB3-35FC-4C6A-8252-97FB7BCAAC35}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4719,7 +5102,388 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>175</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39">
+        <v>318</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" t="s">
+        <v>186</v>
+      </c>
+      <c r="H40">
+        <v>404</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41">
+        <v>407</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" t="s">
+        <v>191</v>
+      </c>
+      <c r="H43">
+        <v>511</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" t="s">
+        <v>198</v>
+      </c>
+      <c r="H44">
+        <v>406</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" t="s">
+        <v>191</v>
+      </c>
+      <c r="H45">
+        <v>511</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46">
+        <v>406</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" t="s">
+        <v>191</v>
+      </c>
+      <c r="H47">
+        <v>317</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48">
+        <v>404</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4728,7 +5492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059CF91E-6117-45C5-82C8-C939713C8D5E}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -13840,7 +14604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50098D-1ABF-4068-8B74-18169C8AD7A1}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/asuschedule/document.xlsx
+++ b/asuschedule/document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\ASU_Schedule\asuschedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D940E20-CAE5-4293-A58B-5A5A27323580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165D2FE5-0E93-4330-BCE1-8BAF7EE83CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2622" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3245" uniqueCount="241">
   <si>
     <t>Курс</t>
   </si>
@@ -503,10 +503,6 @@
     <t>317</t>
   </si>
   <si>
-    <t>Психология деловых
-отношений</t>
-  </si>
-  <si>
     <t>Джамирзе Н.К.</t>
   </si>
   <si>
@@ -526,10 +522,6 @@
   </si>
   <si>
     <t>СИАОД</t>
-  </si>
-  <si>
-    <t>Инженерная и
-компьютерная графика</t>
   </si>
   <si>
     <t>Введение в инж.деятельность</t>
@@ -652,6 +644,126 @@
   </si>
   <si>
     <t xml:space="preserve">Семинар </t>
+  </si>
+  <si>
+    <t>Факультет</t>
+  </si>
+  <si>
+    <t>ФАКУЛЬТЕТ МАТЕМАТИКИ И КОМПЬЮТЕРНЫХ НАУК</t>
+  </si>
+  <si>
+    <t>ИНЖЕНЕРНО-ФИЗИЧЕСКИЙ</t>
+  </si>
+  <si>
+    <t>Психология деловых отношений</t>
+  </si>
+  <si>
+    <t>Практикум по подготовке инженерной документации</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>Куприенко Н.Н.</t>
+  </si>
+  <si>
+    <t>Ельникова О.О.</t>
+  </si>
+  <si>
+    <t>Кодзова З.Н.</t>
+  </si>
+  <si>
+    <t>Акулова Е.А.</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>Прикладная математика и информатика</t>
+  </si>
+  <si>
+    <t>Шишкова А.Ш.</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>904</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>Воронов В.А.</t>
+  </si>
+  <si>
+    <t>Айтекова А.М.</t>
+  </si>
+  <si>
+    <t>Боджокова А.Р.</t>
+  </si>
+  <si>
+    <t>Карпенко Ю.А.</t>
+  </si>
+  <si>
+    <t>Дергачев Е.А.</t>
+  </si>
+  <si>
+    <t>Основы комбинаторики и теории чисел</t>
+  </si>
+  <si>
+    <t>Введение в программирование и алгоритмы</t>
+  </si>
+  <si>
+    <t>Цифровые технологии</t>
+  </si>
+  <si>
+    <t>Математическое обеспечение и администрирование информационных систем</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Читао Л.Р.</t>
+  </si>
+  <si>
+    <t>Практика</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>Алгебра и теория чисел</t>
+  </si>
+  <si>
+    <t>Элективные дисциплины по ФК и спорту</t>
+  </si>
+  <si>
+    <t>Информат. и програм.</t>
+  </si>
+  <si>
+    <t>Информационная безопасность</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>Цеева Н.А.</t>
+  </si>
+  <si>
+    <t>Хокон Р.М.</t>
+  </si>
+  <si>
+    <t>312</t>
   </si>
 </sst>
 </file>
@@ -714,7 +826,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -737,11 +849,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -768,6 +891,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -961,22 +1085,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="60.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="28.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="18.21875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,8 +1135,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1036,8 +1167,11 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1065,8 +1199,11 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1080,7 +1217,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
@@ -1094,8 +1231,11 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1123,8 +1263,11 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1152,8 +1295,11 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1181,8 +1327,11 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1213,8 +1362,11 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1242,8 +1394,11 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1271,8 +1426,11 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1300,8 +1458,11 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -1330,8 +1491,11 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -1360,8 +1524,11 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -1390,8 +1557,11 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -1420,8 +1590,11 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -1452,8 +1625,11 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -1484,8 +1660,11 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -1514,8 +1693,11 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -1533,7 +1715,7 @@
         <v>46</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>31</v>
@@ -1544,8 +1726,11 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -1563,7 +1748,7 @@
         <v>47</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H20" s="5">
         <v>511</v>
@@ -1574,8 +1759,11 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -1606,8 +1794,11 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -1638,8 +1829,11 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -1656,7 +1850,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H23" s="2">
         <v>317</v>
@@ -1667,8 +1861,11 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -1685,7 +1882,7 @@
         <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H24" s="2">
         <v>329</v>
@@ -1696,8 +1893,11 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -1725,8 +1925,11 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -1745,8 +1948,11 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1777,8 +1983,11 @@
       <c r="J27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -1806,8 +2015,11 @@
       <c r="J28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1838,8 +2050,11 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -1858,8 +2073,11 @@
       <c r="J30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -1887,8 +2105,11 @@
       <c r="J31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -1916,8 +2137,11 @@
       <c r="J32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -1936,8 +2160,11 @@
       <c r="J33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -1965,8 +2192,11 @@
       <c r="J34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -1994,8 +2224,11 @@
       <c r="J35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -2012,7 +2245,7 @@
         <v>65</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H36" s="2">
         <v>404</v>
@@ -2023,8 +2256,11 @@
       <c r="J36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -2043,8 +2279,11 @@
       <c r="J37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -2072,8 +2311,11 @@
       <c r="J38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -2101,8 +2343,11 @@
       <c r="J39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -2119,7 +2364,7 @@
         <v>68</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H40" s="2">
         <v>316</v>
@@ -2130,8 +2375,11 @@
       <c r="J40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -2159,8 +2407,11 @@
       <c r="J41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -2188,8 +2439,11 @@
       <c r="J42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -2220,8 +2474,11 @@
       <c r="J43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -2249,8 +2506,11 @@
       <c r="J44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -2278,8 +2538,11 @@
       <c r="J45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -2307,8 +2570,11 @@
       <c r="J46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>4</v>
       </c>
@@ -2336,8 +2602,11 @@
       <c r="J47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -2365,8 +2634,11 @@
       <c r="J48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>4</v>
       </c>
@@ -2385,8 +2657,11 @@
       <c r="J49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -2405,8 +2680,11 @@
       <c r="J50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>4</v>
       </c>
@@ -2425,8 +2703,11 @@
       <c r="J51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>4</v>
       </c>
@@ -2445,8 +2726,564 @@
       <c r="J52" s="1">
         <v>0</v>
       </c>
+      <c r="K52" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1">
+        <v>4</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -2454,10 +3291,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C2F2DF-FE59-47D0-BDF3-50F27700A4C2}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2466,7 +3303,7 @@
     <col min="7" max="7" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2497,8 +3334,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2517,8 +3357,11 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2546,8 +3389,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2575,8 +3421,11 @@
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2590,7 +3439,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G5" t="s">
         <v>105</v>
@@ -2604,8 +3453,11 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2624,8 +3476,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2656,8 +3511,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2688,8 +3546,11 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2717,8 +3578,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2746,8 +3610,11 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2766,8 +3633,11 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2781,7 +3651,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -2795,8 +3665,11 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2824,8 +3697,11 @@
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2856,8 +3732,11 @@
       <c r="J14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2888,8 +3767,11 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2917,8 +3799,11 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2932,10 +3817,10 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
         <v>159</v>
-      </c>
-      <c r="G17" t="s">
-        <v>160</v>
       </c>
       <c r="H17">
         <v>329</v>
@@ -2946,8 +3831,11 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2975,8 +3863,11 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2995,8 +3886,11 @@
       <c r="J19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3013,10 +3907,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H20">
         <v>328</v>
@@ -3027,8 +3921,11 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3042,10 +3939,10 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H21">
         <v>327</v>
@@ -3056,8 +3953,11 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3074,10 +3974,10 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H22">
         <v>328</v>
@@ -3088,8 +3988,11 @@
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3120,8 +4023,11 @@
       <c r="J23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3140,8 +4046,11 @@
       <c r="J24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3169,8 +4078,11 @@
       <c r="J25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3201,8 +4113,11 @@
       <c r="J26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -3222,10 +4137,10 @@
         <v>48</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -3233,8 +4148,11 @@
       <c r="J27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3262,8 +4180,11 @@
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3282,8 +4203,11 @@
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3311,8 +4235,11 @@
       <c r="J30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3326,7 +4253,7 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G31" t="s">
         <v>121</v>
@@ -3340,8 +4267,11 @@
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3358,7 +4288,7 @@
         <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H32">
         <v>317</v>
@@ -3369,8 +4299,11 @@
       <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3387,7 +4320,7 @@
         <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H33">
         <v>317</v>
@@ -3398,8 +4331,11 @@
       <c r="J33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3425,13 +4361,16 @@
         <v>407</v>
       </c>
       <c r="I34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3457,13 +4396,16 @@
         <v>407</v>
       </c>
       <c r="I35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3489,13 +4431,16 @@
         <v>406</v>
       </c>
       <c r="I36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -3509,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G37" t="s">
         <v>70</v>
@@ -3523,8 +4468,11 @@
       <c r="J37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -3555,8 +4503,11 @@
       <c r="J38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -3579,13 +4530,16 @@
         <v>404</v>
       </c>
       <c r="I39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3608,13 +4562,16 @@
         <v>407</v>
       </c>
       <c r="I40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -3642,8 +4599,11 @@
       <c r="J41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3657,7 +4617,7 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -3671,8 +4631,11 @@
       <c r="J42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -3700,8 +4663,11 @@
       <c r="J43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -3715,7 +4681,7 @@
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G44" t="s">
         <v>19</v>
@@ -3729,8 +4695,11 @@
       <c r="J44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3744,7 +4713,7 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
@@ -3758,8 +4727,11 @@
       <c r="J45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3787,8 +4759,11 @@
       <c r="J46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -3808,7 +4783,7 @@
         <v>96</v>
       </c>
       <c r="G47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H47">
         <v>511</v>
@@ -3819,8 +4794,11 @@
       <c r="J47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
@@ -3837,7 +4815,7 @@
         <v>94</v>
       </c>
       <c r="G48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I48" t="s">
         <v>14</v>
@@ -3845,8 +4823,11 @@
       <c r="J48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -3877,8 +4858,11 @@
       <c r="J49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4</v>
       </c>
@@ -3901,13 +4885,16 @@
         <v>405</v>
       </c>
       <c r="I50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -3924,7 +4911,7 @@
         <v>94</v>
       </c>
       <c r="G51" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I51" t="s">
         <v>14</v>
@@ -3932,8 +4919,11 @@
       <c r="J51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -3956,13 +4946,16 @@
         <v>405</v>
       </c>
       <c r="I52" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -3979,7 +4972,7 @@
         <v>94</v>
       </c>
       <c r="G53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I53" t="s">
         <v>14</v>
@@ -3987,8 +4980,11 @@
       <c r="J53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4</v>
       </c>
@@ -4016,8 +5012,11 @@
       <c r="J54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4</v>
       </c>
@@ -4031,7 +5030,7 @@
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G55" t="s">
         <v>88</v>
@@ -4044,6 +5043,9 @@
       </c>
       <c r="J55">
         <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4054,10 +5056,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC10DB3-35FC-4C6A-8252-97FB7BCAAC35}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4066,7 +5068,7 @@
     <col min="7" max="7" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4097,8 +5099,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4126,8 +5131,11 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4155,8 +5163,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4184,8 +5195,11 @@
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4213,8 +5227,11 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4242,8 +5259,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -4271,8 +5291,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4303,8 +5326,11 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -4332,8 +5358,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4361,8 +5390,11 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -4390,8 +5422,11 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4419,8 +5454,11 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4434,10 +5472,10 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" t="s">
         <v>159</v>
-      </c>
-      <c r="G13" t="s">
-        <v>160</v>
       </c>
       <c r="H13">
         <v>324</v>
@@ -4448,8 +5486,11 @@
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -4477,8 +5518,11 @@
       <c r="J14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -4509,8 +5553,11 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -4530,7 +5577,7 @@
         <v>140</v>
       </c>
       <c r="G16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H16">
         <v>406</v>
@@ -4538,8 +5585,11 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -4556,7 +5606,7 @@
         <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H17">
         <v>407</v>
@@ -4567,8 +5617,11 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4599,8 +5652,11 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4631,8 +5687,11 @@
       <c r="J19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -4649,7 +5708,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H20">
         <v>318</v>
@@ -4660,8 +5719,11 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -4689,8 +5751,11 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4721,8 +5786,11 @@
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4750,8 +5818,11 @@
       <c r="J23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -4765,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
         <v>121</v>
@@ -4779,8 +5850,11 @@
       <c r="J24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -4808,8 +5882,11 @@
       <c r="J25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -4837,8 +5914,11 @@
       <c r="J26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -4864,13 +5944,16 @@
         <v>407</v>
       </c>
       <c r="I27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -4896,13 +5979,16 @@
         <v>405</v>
       </c>
       <c r="I28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -4930,8 +6016,11 @@
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -4959,8 +6048,11 @@
       <c r="J30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -4983,13 +6075,16 @@
         <v>405</v>
       </c>
       <c r="I31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -5009,13 +6104,16 @@
         <v>90</v>
       </c>
       <c r="I32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -5043,8 +6141,11 @@
       <c r="J33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -5058,7 +6159,7 @@
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G34" t="s">
         <v>44</v>
@@ -5072,8 +6173,11 @@
       <c r="J34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -5101,8 +6205,11 @@
       <c r="J35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -5127,8 +6234,11 @@
       <c r="J36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -5142,7 +6252,7 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G37" t="s">
         <v>19</v>
@@ -5153,8 +6263,11 @@
       <c r="J37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -5168,19 +6281,22 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -5211,8 +6327,11 @@
       <c r="J39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -5232,7 +6351,7 @@
         <v>94</v>
       </c>
       <c r="G40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H40">
         <v>404</v>
@@ -5243,8 +6362,11 @@
       <c r="J40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -5264,7 +6386,7 @@
         <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H41">
         <v>407</v>
@@ -5275,8 +6397,11 @@
       <c r="J41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -5296,7 +6421,7 @@
         <v>93</v>
       </c>
       <c r="G42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H42" t="s">
         <v>31</v>
@@ -5307,8 +6432,11 @@
       <c r="J42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -5325,7 +6453,7 @@
         <v>96</v>
       </c>
       <c r="G43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H43">
         <v>511</v>
@@ -5336,8 +6464,11 @@
       <c r="J43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -5354,7 +6485,7 @@
         <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H44">
         <v>406</v>
@@ -5365,8 +6496,11 @@
       <c r="J44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -5383,7 +6517,7 @@
         <v>96</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H45">
         <v>511</v>
@@ -5394,8 +6528,11 @@
       <c r="J45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -5423,8 +6560,11 @@
       <c r="J46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -5441,7 +6581,7 @@
         <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H47">
         <v>317</v>
@@ -5452,8 +6592,11 @@
       <c r="J47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
@@ -5480,6 +6623,9 @@
       </c>
       <c r="J48">
         <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5490,10 +6636,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059CF91E-6117-45C5-82C8-C939713C8D5E}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5502,7 +6648,7 @@
     <col min="7" max="7" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5533,8 +6679,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5551,7 +6700,7 @@
         <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H2">
         <v>405</v>
@@ -5562,8 +6711,11 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5580,7 +6732,7 @@
         <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H3">
         <v>405</v>
@@ -5591,8 +6743,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -5606,10 +6761,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
@@ -5620,8 +6775,11 @@
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5635,10 +6793,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -5649,8 +6807,11 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5678,8 +6839,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5706,6 +6870,9 @@
       </c>
       <c r="J7">
         <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5716,10 +6883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5728,10 +6895,12 @@
     <col min="6" max="6" width="57.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="32.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="18.77734375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5762,8 +6931,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5782,8 +6954,11 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5811,8 +6986,11 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -5840,8 +7018,11 @@
       <c r="J4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -5869,8 +7050,11 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -5889,8 +7073,11 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -5921,8 +7108,11 @@
       <c r="J7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -5953,8 +7143,11 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -5982,8 +7175,11 @@
       <c r="J9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -6002,8 +7198,11 @@
       <c r="J10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -6031,8 +7230,11 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -6059,8 +7261,11 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -6089,8 +7294,11 @@
       <c r="J13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -6119,8 +7327,11 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -6143,8 +7354,11 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -6173,8 +7387,11 @@
       <c r="J16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -6205,8 +7422,11 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -6237,8 +7457,11 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -6261,8 +7484,11 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -6291,8 +7517,11 @@
       <c r="J20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -6321,8 +7550,11 @@
       <c r="J21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -6345,8 +7577,11 @@
       <c r="J22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -6363,7 +7598,7 @@
         <v>87</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H23" s="2">
         <v>317</v>
@@ -6374,8 +7609,11 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -6392,7 +7630,7 @@
         <v>87</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H24" s="2">
         <v>317</v>
@@ -6403,8 +7641,11 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -6421,7 +7662,7 @@
         <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H25" s="2">
         <v>317</v>
@@ -6432,8 +7673,11 @@
       <c r="J25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -6461,8 +7705,11 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -6493,8 +7740,11 @@
       <c r="J27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -6525,8 +7775,11 @@
       <c r="J28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -6557,8 +7810,11 @@
       <c r="J29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -6589,8 +7845,11 @@
       <c r="J30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -6621,8 +7880,11 @@
       <c r="J31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -6650,8 +7912,11 @@
       <c r="J32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -6679,8 +7944,11 @@
       <c r="J33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -6708,8 +7976,11 @@
       <c r="J34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -6737,8 +8008,11 @@
       <c r="J35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -6766,8 +8040,11 @@
       <c r="J36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -6795,8 +8072,11 @@
       <c r="J37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -6824,8 +8104,11 @@
       <c r="J38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -6853,8 +8136,11 @@
       <c r="J39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -6885,8 +8171,11 @@
       <c r="J40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -6903,7 +8192,7 @@
         <v>93</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>31</v>
@@ -6914,8 +8203,11 @@
       <c r="J41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -6946,8 +8238,11 @@
       <c r="J42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -6964,7 +8259,7 @@
         <v>93</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>31</v>
@@ -6975,8 +8270,11 @@
       <c r="J43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -6993,7 +8291,7 @@
         <v>94</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H44" s="2">
         <v>406</v>
@@ -7004,8 +8302,11 @@
       <c r="J44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -7033,8 +8334,11 @@
       <c r="J45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -7051,7 +8355,7 @@
         <v>93</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>31</v>
@@ -7062,8 +8366,11 @@
       <c r="J46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>4</v>
       </c>
@@ -7080,7 +8387,7 @@
         <v>96</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H47" s="2">
         <v>511</v>
@@ -7091,8 +8398,11 @@
       <c r="J47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -7120,8 +8430,11 @@
       <c r="J48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>4</v>
       </c>
@@ -7138,7 +8451,7 @@
         <v>60</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H49" s="2">
         <v>318</v>
@@ -7148,6 +8461,9 @@
       </c>
       <c r="J49" s="1">
         <v>0</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -7158,10 +8474,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7170,10 +8486,12 @@
     <col min="6" max="6" width="44.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7204,8 +8522,11 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7233,8 +8554,11 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7262,8 +8586,11 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7291,8 +8618,11 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7320,8 +8650,11 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -7349,8 +8682,11 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -7378,8 +8714,11 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K7" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -7396,7 +8735,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>26</v>
@@ -7410,8 +8749,11 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -7442,8 +8784,11 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -7471,8 +8816,11 @@
       <c r="J10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -7500,8 +8848,11 @@
       <c r="J11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -7519,7 +8870,7 @@
         <v>113</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H12" s="5">
         <v>329</v>
@@ -7530,8 +8881,11 @@
       <c r="J12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -7549,7 +8903,7 @@
         <v>114</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H13" s="5">
         <v>329</v>
@@ -7560,8 +8914,11 @@
       <c r="J13" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -7579,7 +8936,7 @@
         <v>114</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H14" s="5">
         <v>329</v>
@@ -7590,8 +8947,11 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -7620,8 +8980,11 @@
       <c r="J15" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -7650,8 +9013,11 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -7682,8 +9048,11 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -7714,8 +9083,11 @@
       <c r="J18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -7746,8 +9118,11 @@
       <c r="J19" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -7776,8 +9151,11 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -7806,8 +9184,11 @@
       <c r="J21" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -7838,8 +9219,11 @@
       <c r="J22" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -7867,8 +9251,11 @@
       <c r="J23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -7896,8 +9283,11 @@
       <c r="J24" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -7925,8 +9315,11 @@
       <c r="J25" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -7945,8 +9338,11 @@
       <c r="J26" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -7977,8 +9373,11 @@
       <c r="J27" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -8009,8 +9408,11 @@
       <c r="J28" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -8038,8 +9440,11 @@
       <c r="J29" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -8058,8 +9463,11 @@
       <c r="J30" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -8087,8 +9495,11 @@
       <c r="J31" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -8107,8 +9518,11 @@
       <c r="J32" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -8136,8 +9550,11 @@
       <c r="J33" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -8165,8 +9582,11 @@
       <c r="J34" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -8194,8 +9614,11 @@
       <c r="J35" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -8214,8 +9637,11 @@
       <c r="J36" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -8246,8 +9672,11 @@
       <c r="J37" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -8275,8 +9704,11 @@
       <c r="J38" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -8296,7 +9728,7 @@
         <v>93</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H39" s="2">
         <v>328</v>
@@ -8307,8 +9739,11 @@
       <c r="J39" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -8339,8 +9774,11 @@
       <c r="J40" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -8368,8 +9806,11 @@
       <c r="J41" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -8397,8 +9838,11 @@
       <c r="J42" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -8415,7 +9859,7 @@
         <v>96</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H43" s="2">
         <v>511</v>
@@ -8426,8 +9870,11 @@
       <c r="J43" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -8455,8 +9902,11 @@
       <c r="J44" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -8484,8 +9934,11 @@
       <c r="J45" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -8513,8 +9966,11 @@
       <c r="J46" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>4</v>
       </c>
@@ -8531,7 +9987,7 @@
         <v>60</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H47" s="2">
         <v>511</v>
@@ -8541,6 +9997,9 @@
       </c>
       <c r="J47" s="6">
         <v>0</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -8553,8 +10012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8597,7 +10056,9 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
@@ -8618,9 +10079,11 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K2" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -8634,7 +10097,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>19</v>
@@ -8648,8 +10111,11 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K3" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -8663,7 +10129,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>19</v>
@@ -8677,8 +10143,11 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K4" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -8692,10 +10161,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>132</v>
@@ -8706,6 +10175,9 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
+      <c r="K5" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -8726,6 +10198,9 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
+      <c r="K6" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
@@ -8758,6 +10233,9 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
+      <c r="K7" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
@@ -8790,6 +10268,9 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
+      <c r="K8" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -8805,10 +10286,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>106</v>
@@ -8819,6 +10300,9 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
+      <c r="K9" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -8839,6 +10323,9 @@
       <c r="J10" s="6">
         <v>0</v>
       </c>
+      <c r="K10" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
@@ -8854,7 +10341,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
@@ -8868,6 +10355,9 @@
       <c r="J11" s="6">
         <v>0</v>
       </c>
+      <c r="K11" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
@@ -8897,6 +10387,9 @@
       <c r="J12" s="6">
         <v>0</v>
       </c>
+      <c r="K12" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
@@ -8925,6 +10418,9 @@
       </c>
       <c r="J13" s="6">
         <v>0</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -8956,6 +10452,9 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
+      <c r="K14" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
@@ -8972,10 +10471,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="H15" s="14">
         <v>319</v>
@@ -8985,6 +10484,9 @@
       </c>
       <c r="J15" s="6">
         <v>0</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -9016,8 +10518,11 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>2</v>
       </c>
@@ -9040,8 +10545,11 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>2</v>
       </c>
@@ -9061,7 +10569,7 @@
         <v>140</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H18" s="14">
         <v>407</v>
@@ -9072,8 +10580,11 @@
       <c r="J18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>2</v>
       </c>
@@ -9090,10 +10601,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H19" s="14">
         <v>328</v>
@@ -9104,8 +10615,11 @@
       <c r="J19" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>2</v>
       </c>
@@ -9125,7 +10639,7 @@
         <v>140</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H20" s="14">
         <v>407</v>
@@ -9136,8 +10650,11 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K20" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>2</v>
       </c>
@@ -9154,7 +10671,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>61</v>
@@ -9168,8 +10685,11 @@
       <c r="J21" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>2</v>
       </c>
@@ -9186,10 +10706,10 @@
         <v>3</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H22" s="14">
         <v>328</v>
@@ -9200,8 +10720,11 @@
       <c r="J22" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>2</v>
       </c>
@@ -9224,8 +10747,11 @@
       <c r="J23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>2</v>
       </c>
@@ -9240,10 +10766,10 @@
         <v>1</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H24" s="14">
         <v>327</v>
@@ -9254,8 +10780,11 @@
       <c r="J24" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>2</v>
       </c>
@@ -9278,7 +10807,7 @@
         <v>78</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>17</v>
@@ -9286,8 +10815,11 @@
       <c r="J25" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>2</v>
       </c>
@@ -9307,10 +10839,10 @@
         <v>48</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>17</v>
@@ -9318,8 +10850,11 @@
       <c r="J26" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>2</v>
       </c>
@@ -9348,8 +10883,11 @@
       <c r="J27" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>2</v>
       </c>
@@ -9372,8 +10910,11 @@
       <c r="J28" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>3</v>
       </c>
@@ -9401,8 +10942,11 @@
       <c r="J29" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>3</v>
       </c>
@@ -9430,8 +10974,11 @@
       <c r="J30" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>3</v>
       </c>
@@ -9459,8 +11006,11 @@
       <c r="J31" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>3</v>
       </c>
@@ -9488,8 +11038,11 @@
       <c r="J32" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>3</v>
       </c>
@@ -9520,8 +11073,11 @@
       <c r="J33" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>3</v>
       </c>
@@ -9549,8 +11105,11 @@
       <c r="J34" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>3</v>
       </c>
@@ -9581,8 +11140,11 @@
       <c r="J35" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>3</v>
       </c>
@@ -9613,8 +11175,11 @@
       <c r="J36" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>3</v>
       </c>
@@ -9642,8 +11207,11 @@
       <c r="J37" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>3</v>
       </c>
@@ -9671,8 +11239,11 @@
       <c r="J38" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>3</v>
       </c>
@@ -9700,8 +11271,11 @@
       <c r="J39" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>3</v>
       </c>
@@ -9718,7 +11292,7 @@
         <v>65</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H40" s="9">
         <v>406</v>
@@ -9729,8 +11303,11 @@
       <c r="J40" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -9761,8 +11338,11 @@
       <c r="J41" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -9782,7 +11362,7 @@
         <v>96</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H42" s="2">
         <v>511</v>
@@ -9793,8 +11373,11 @@
       <c r="J42" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -9814,7 +11397,7 @@
         <v>96</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H43" s="2">
         <v>511</v>
@@ -9825,8 +11408,11 @@
       <c r="J43" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -9857,8 +11443,11 @@
       <c r="J44" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -9873,10 +11462,10 @@
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H45" s="2">
         <v>327</v>
@@ -9887,8 +11476,11 @@
       <c r="J45" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -9906,7 +11498,7 @@
         <v>93</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H46" s="2">
         <v>406</v>
@@ -9917,8 +11509,11 @@
       <c r="J46" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>4</v>
       </c>
@@ -9947,8 +11542,11 @@
       <c r="J47" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>4</v>
       </c>
@@ -9963,10 +11561,10 @@
         <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H48" s="2">
         <v>327</v>
@@ -9977,8 +11575,11 @@
       <c r="J48" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>4</v>
       </c>
@@ -10007,8 +11608,11 @@
       <c r="J49" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>4</v>
       </c>
@@ -10037,8 +11641,11 @@
       <c r="J50" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>4</v>
       </c>
@@ -10056,7 +11663,7 @@
         <v>93</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H51" s="2">
         <v>406</v>
@@ -10067,8 +11674,11 @@
       <c r="J51" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>4</v>
       </c>
@@ -10083,10 +11693,10 @@
         <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H52" s="2">
         <v>327</v>
@@ -10096,6 +11706,9 @@
       </c>
       <c r="J52" s="6">
         <v>0</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -10106,22 +11719,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="28.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="39.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="18.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10152,8 +11767,11 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10181,8 +11799,11 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10210,8 +11831,11 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -10239,8 +11863,11 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -10268,8 +11895,11 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -10297,8 +11927,11 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -10326,8 +11959,11 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -10355,8 +11991,11 @@
       <c r="J8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -10384,8 +12023,11 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -10413,8 +12055,11 @@
       <c r="J10" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K10" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -10428,7 +12073,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>136</v>
@@ -10442,8 +12087,11 @@
       <c r="J11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -10474,8 +12122,11 @@
       <c r="J12" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -10506,8 +12157,11 @@
       <c r="J13" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2</v>
       </c>
@@ -10525,7 +12179,7 @@
         <v>139</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H14" s="5">
         <v>329</v>
@@ -10536,8 +12190,11 @@
       <c r="J14" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
@@ -10555,7 +12212,7 @@
         <v>139</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H15" s="5">
         <v>329</v>
@@ -10566,8 +12223,11 @@
       <c r="J15" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -10596,8 +12256,11 @@
       <c r="J16" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -10617,7 +12280,7 @@
         <v>140</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H17" s="5">
         <v>407</v>
@@ -10628,8 +12291,11 @@
       <c r="J17" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -10658,8 +12324,11 @@
       <c r="J18" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -10690,8 +12359,11 @@
       <c r="J19" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -10720,8 +12392,11 @@
       <c r="J20" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -10739,7 +12414,7 @@
         <v>141</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H21" s="5">
         <v>233</v>
@@ -10750,8 +12425,11 @@
       <c r="J21" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -10780,8 +12458,11 @@
       <c r="J22" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -10812,8 +12493,11 @@
       <c r="J23" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -10841,8 +12525,11 @@
       <c r="J24" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -10870,8 +12557,11 @@
       <c r="J25" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -10888,7 +12578,7 @@
         <v>143</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H26" s="2">
         <v>317</v>
@@ -10899,8 +12589,11 @@
       <c r="J26" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -10917,7 +12610,7 @@
         <v>49</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H27" s="2">
         <v>317</v>
@@ -10928,8 +12621,11 @@
       <c r="J27" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -10960,8 +12656,11 @@
       <c r="J28" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -10992,8 +12691,11 @@
       <c r="J29" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -11021,8 +12723,11 @@
       <c r="J30" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -11050,8 +12755,11 @@
       <c r="J31" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -11079,8 +12787,11 @@
       <c r="J32" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -11108,8 +12819,11 @@
       <c r="J33" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -11137,8 +12851,11 @@
       <c r="J34" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -11155,7 +12872,7 @@
         <v>65</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H35" s="2">
         <v>407</v>
@@ -11166,8 +12883,11 @@
       <c r="J35" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -11187,7 +12907,7 @@
         <v>94</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H36" s="2">
         <v>404</v>
@@ -11198,8 +12918,11 @@
       <c r="J36" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -11219,7 +12942,7 @@
         <v>94</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H37" s="2">
         <v>328</v>
@@ -11230,8 +12953,11 @@
       <c r="J37" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4</v>
       </c>
@@ -11251,7 +12977,7 @@
         <v>93</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H38" s="2">
         <v>406</v>
@@ -11262,8 +12988,11 @@
       <c r="J38" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -11294,8 +13023,11 @@
       <c r="J39" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -11323,8 +13055,11 @@
       <c r="J40" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>4</v>
       </c>
@@ -11352,8 +13087,11 @@
       <c r="J41" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -11370,7 +13108,7 @@
         <v>93</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H42" s="2">
         <v>404</v>
@@ -11381,8 +13119,11 @@
       <c r="J42" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -11399,7 +13140,7 @@
         <v>145</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H43" s="2">
         <v>511</v>
@@ -11410,8 +13151,11 @@
       <c r="J43" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -11428,7 +13172,7 @@
         <v>145</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H44" s="2">
         <v>329</v>
@@ -11439,8 +13183,11 @@
       <c r="J44" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -11468,8 +13215,11 @@
       <c r="J45" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -11486,7 +13236,7 @@
         <v>60</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H46" s="2">
         <v>511</v>
@@ -11496,6 +13246,9 @@
       </c>
       <c r="J46" s="6">
         <v>0</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -11506,10 +13259,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11517,10 +13270,12 @@
     <col min="1" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="50.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="17.5546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -11551,8 +13306,11 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -11572,7 +13330,7 @@
         <v>148</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H2" s="2">
         <v>405</v>
@@ -11583,8 +13341,11 @@
       <c r="J2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -11601,7 +13362,7 @@
         <v>148</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H3" s="2">
         <v>405</v>
@@ -11612,8 +13373,11 @@
       <c r="J3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -11633,7 +13397,7 @@
         <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H4" s="2">
         <v>405</v>
@@ -11644,8 +13408,11 @@
       <c r="J4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11662,7 +13429,7 @@
         <v>148</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H5" s="2">
         <v>405</v>
@@ -11673,8 +13440,11 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11691,7 +13461,7 @@
         <v>148</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H6" s="2">
         <v>405</v>
@@ -11702,8 +13472,11 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -11731,8 +13504,11 @@
       <c r="J7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -11759,6 +13535,9 @@
       </c>
       <c r="J8" s="6">
         <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -11769,10 +13548,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="B33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11781,7 +13560,7 @@
     <col min="7" max="7" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11812,8 +13591,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11841,8 +13623,11 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11870,8 +13655,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11899,8 +13687,11 @@
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -11928,8 +13719,11 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -11957,8 +13751,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -11986,8 +13783,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -12015,8 +13815,11 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -12044,8 +13847,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -12073,8 +13879,11 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -12102,8 +13911,11 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -12131,8 +13943,11 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -12160,8 +13975,11 @@
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -12189,8 +14007,11 @@
       <c r="J14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -12218,8 +14039,11 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -12250,8 +14074,11 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -12268,7 +14095,7 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H17" t="s">
         <v>31</v>
@@ -12279,8 +14106,11 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -12308,8 +14138,11 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -12340,8 +14173,11 @@
       <c r="J19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -12355,10 +14191,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H20">
         <v>317</v>
@@ -12369,8 +14205,11 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -12398,8 +14237,11 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -12413,10 +14255,10 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H22">
         <v>329</v>
@@ -12427,8 +14269,11 @@
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -12447,8 +14292,11 @@
       <c r="J23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -12474,13 +14322,16 @@
         <v>407</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -12508,8 +14359,11 @@
       <c r="J25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -12523,7 +14377,7 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G26" t="s">
         <v>70</v>
@@ -12537,8 +14391,11 @@
       <c r="J26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -12557,8 +14414,11 @@
       <c r="J27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -12586,8 +14446,11 @@
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -12601,7 +14464,7 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G29" t="s">
         <v>70</v>
@@ -12615,8 +14478,11 @@
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -12635,8 +14501,11 @@
       <c r="J30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -12664,8 +14533,11 @@
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -12693,8 +14565,11 @@
       <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -12713,8 +14588,11 @@
       <c r="J33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -12742,8 +14620,11 @@
       <c r="J34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -12771,8 +14652,11 @@
       <c r="J35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -12789,7 +14673,7 @@
         <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H36">
         <v>316</v>
@@ -12800,8 +14684,11 @@
       <c r="J36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -12821,7 +14708,7 @@
         <v>93</v>
       </c>
       <c r="G37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H37">
         <v>404</v>
@@ -12832,8 +14719,11 @@
       <c r="J37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -12864,8 +14754,11 @@
       <c r="J38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -12893,8 +14786,11 @@
       <c r="J39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -12922,8 +14818,11 @@
       <c r="J40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -12951,8 +14850,11 @@
       <c r="J41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -12980,8 +14882,11 @@
       <c r="J42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -13009,8 +14914,11 @@
       <c r="J43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -13038,8 +14946,11 @@
       <c r="J44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -13053,7 +14964,7 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G45" t="s">
         <v>70</v>
@@ -13067,8 +14978,11 @@
       <c r="J45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -13085,7 +14999,7 @@
         <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H46">
         <v>511</v>
@@ -13095,6 +15009,9 @@
       </c>
       <c r="J46">
         <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -13110,10 +15027,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="D23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13122,7 +15039,7 @@
     <col min="7" max="7" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13153,8 +15070,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13173,8 +15093,11 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13202,8 +15125,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -13231,8 +15157,11 @@
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -13246,10 +15175,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -13260,8 +15189,11 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -13280,8 +15212,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -13312,8 +15247,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -13344,8 +15282,11 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -13376,8 +15317,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -13396,8 +15340,11 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -13425,8 +15372,11 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -13454,8 +15404,11 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -13483,8 +15436,11 @@
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -13512,8 +15468,11 @@
       <c r="J14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -13541,8 +15500,11 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -13556,7 +15518,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
         <v>39</v>
@@ -13570,8 +15532,11 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -13590,8 +15555,11 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -13622,8 +15590,11 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -13654,8 +15625,11 @@
       <c r="J19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -13686,8 +15660,11 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13718,8 +15695,11 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -13733,13 +15713,16 @@
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -13767,8 +15750,11 @@
       <c r="J23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -13782,10 +15768,10 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H24">
         <v>406</v>
@@ -13796,8 +15782,11 @@
       <c r="J24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -13828,8 +15817,11 @@
       <c r="J25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -13849,10 +15841,10 @@
         <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -13860,8 +15852,11 @@
       <c r="J26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -13880,8 +15875,11 @@
       <c r="J27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -13895,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G28" t="s">
         <v>121</v>
@@ -13909,8 +15907,11 @@
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -13924,7 +15925,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G29" t="s">
         <v>121</v>
@@ -13938,8 +15939,11 @@
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -13956,7 +15960,7 @@
         <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H30">
         <v>329</v>
@@ -13967,8 +15971,11 @@
       <c r="J30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -13985,7 +15992,7 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H31">
         <v>329</v>
@@ -13996,8 +16003,11 @@
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -14023,13 +16033,16 @@
         <v>406</v>
       </c>
       <c r="I32" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -14055,13 +16068,16 @@
         <v>405</v>
       </c>
       <c r="I33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -14089,8 +16105,11 @@
       <c r="J34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -14104,7 +16123,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G35" t="s">
         <v>26</v>
@@ -14113,13 +16132,16 @@
         <v>328</v>
       </c>
       <c r="I35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -14147,8 +16169,11 @@
       <c r="J36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -14171,13 +16196,16 @@
         <v>405</v>
       </c>
       <c r="I37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -14194,7 +16222,7 @@
         <v>65</v>
       </c>
       <c r="G38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H38">
         <v>406</v>
@@ -14205,8 +16233,11 @@
       <c r="J38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -14234,8 +16265,11 @@
       <c r="J39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -14249,10 +16283,10 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H40" t="s">
         <v>31</v>
@@ -14263,8 +16297,11 @@
       <c r="J40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -14278,10 +16315,10 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H41" t="s">
         <v>31</v>
@@ -14292,8 +16329,11 @@
       <c r="J41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -14307,7 +16347,7 @@
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -14321,8 +16361,11 @@
       <c r="J42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -14353,8 +16396,11 @@
       <c r="J43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -14371,7 +16417,7 @@
         <v>96</v>
       </c>
       <c r="G44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H44">
         <v>511</v>
@@ -14382,8 +16428,11 @@
       <c r="J44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -14403,7 +16452,7 @@
         <v>96</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H45">
         <v>511</v>
@@ -14414,8 +16463,11 @@
       <c r="J45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -14432,7 +16484,7 @@
         <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H46">
         <v>404</v>
@@ -14443,8 +16495,11 @@
       <c r="J46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -14461,7 +16516,7 @@
         <v>96</v>
       </c>
       <c r="G47" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H47">
         <v>511</v>
@@ -14472,8 +16527,11 @@
       <c r="J47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
@@ -14490,7 +16548,7 @@
         <v>93</v>
       </c>
       <c r="G48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H48">
         <v>407</v>
@@ -14501,8 +16559,11 @@
       <c r="J48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -14519,7 +16580,7 @@
         <v>96</v>
       </c>
       <c r="G49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H49">
         <v>511</v>
@@ -14530,8 +16591,11 @@
       <c r="J49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4</v>
       </c>
@@ -14559,8 +16623,11 @@
       <c r="J50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -14587,6 +16654,9 @@
       </c>
       <c r="J51">
         <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -14602,10 +16672,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A50098D-1ABF-4068-8B74-18169C8AD7A1}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14614,7 +16684,7 @@
     <col min="7" max="7" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14645,8 +16715,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14674,8 +16747,11 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -14703,8 +16779,11 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -14732,8 +16811,11 @@
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -14761,8 +16843,11 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -14790,8 +16875,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -14819,8 +16907,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -14834,10 +16925,10 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" t="s">
         <v>156</v>
-      </c>
-      <c r="G8" t="s">
-        <v>157</v>
       </c>
       <c r="H8">
         <v>327</v>
@@ -14848,8 +16939,11 @@
       <c r="J8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -14877,8 +16971,11 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -14906,8 +17003,11 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -14927,7 +17027,7 @@
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -14935,8 +17035,11 @@
       <c r="J11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -14959,7 +17062,7 @@
         <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -14967,8 +17070,11 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -14991,7 +17097,7 @@
         <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -14999,8 +17105,11 @@
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -15017,7 +17126,7 @@
         <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H14">
         <v>329</v>
@@ -15028,8 +17137,11 @@
       <c r="J14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -15046,7 +17158,7 @@
         <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H15">
         <v>329</v>
@@ -15057,8 +17169,11 @@
       <c r="J15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -15086,8 +17201,11 @@
       <c r="J16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -15104,7 +17222,7 @@
         <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H17">
         <v>329</v>
@@ -15115,8 +17233,11 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -15144,8 +17265,11 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -15173,8 +17297,11 @@
       <c r="J19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -15202,8 +17329,11 @@
       <c r="J20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -15231,8 +17361,11 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -15249,7 +17382,7 @@
         <v>141</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H22" t="s">
         <v>31</v>
@@ -15260,8 +17393,11 @@
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -15292,8 +17428,11 @@
       <c r="J23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -15307,7 +17446,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G24" t="s">
         <v>121</v>
@@ -15321,8 +17460,11 @@
       <c r="J24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -15350,8 +17492,11 @@
       <c r="J25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -15365,10 +17510,10 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H26">
         <v>329</v>
@@ -15379,8 +17524,11 @@
       <c r="J26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -15399,8 +17547,11 @@
       <c r="J27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -15426,13 +17577,16 @@
         <v>404</v>
       </c>
       <c r="I28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -15460,8 +17614,11 @@
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -15487,13 +17644,16 @@
         <v>405</v>
       </c>
       <c r="I30" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -15519,13 +17679,16 @@
         <v>328</v>
       </c>
       <c r="I31" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -15544,8 +17707,11 @@
       <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -15568,13 +17734,16 @@
         <v>405</v>
       </c>
       <c r="I33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -15602,8 +17771,11 @@
       <c r="J34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -15626,13 +17798,16 @@
         <v>404</v>
       </c>
       <c r="I35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -15651,8 +17826,11 @@
       <c r="J36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -15680,8 +17858,11 @@
       <c r="J37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -15709,8 +17890,11 @@
       <c r="J38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -15724,7 +17908,7 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G39" t="s">
         <v>81</v>
@@ -15738,8 +17922,11 @@
       <c r="J39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -15756,13 +17943,16 @@
         <v>75</v>
       </c>
       <c r="I40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -15776,10 +17966,10 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H41" t="s">
         <v>31</v>
@@ -15790,8 +17980,11 @@
       <c r="J41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -15805,10 +17998,10 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H42" t="s">
         <v>31</v>
@@ -15819,8 +18012,11 @@
       <c r="J42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4</v>
       </c>
@@ -15837,7 +18033,7 @@
         <v>68</v>
       </c>
       <c r="G43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H43">
         <v>319</v>
@@ -15848,8 +18044,11 @@
       <c r="J43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4</v>
       </c>
@@ -15880,8 +18079,11 @@
       <c r="J44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
@@ -15909,8 +18111,11 @@
       <c r="J45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4</v>
       </c>
@@ -15938,8 +18143,11 @@
       <c r="J46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -15967,8 +18175,11 @@
       <c r="J47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
@@ -15996,8 +18207,11 @@
       <c r="J48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
@@ -16025,8 +18239,11 @@
       <c r="J49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4</v>
       </c>
@@ -16043,7 +18260,7 @@
         <v>145</v>
       </c>
       <c r="G50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H50">
         <v>407</v>
@@ -16054,8 +18271,11 @@
       <c r="J50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -16083,8 +18303,11 @@
       <c r="J51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4</v>
       </c>
@@ -16112,8 +18335,11 @@
       <c r="J52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4</v>
       </c>
@@ -16130,7 +18356,7 @@
         <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H53">
         <v>511</v>
@@ -16140,6 +18366,9 @@
       </c>
       <c r="J53">
         <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/asuschedule/document.xlsx
+++ b/asuschedule/document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\ASU_Schedule\asuschedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165D2FE5-0E93-4330-BCE1-8BAF7EE83CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9424EC3A-770D-46AD-9701-01FD799FE68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,9 +649,6 @@
     <t>Факультет</t>
   </si>
   <si>
-    <t>ФАКУЛЬТЕТ МАТЕМАТИКИ И КОМПЬЮТЕРНЫХ НАУК</t>
-  </si>
-  <si>
     <t>ИНЖЕНЕРНО-ФИЗИЧЕСКИЙ</t>
   </si>
   <si>
@@ -764,6 +761,9 @@
   </si>
   <si>
     <t>312</t>
+  </si>
+  <si>
+    <t>ФАМИКОН</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1087,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -2747,13 +2747,13 @@
         <v>152</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -2773,10 +2773,10 @@
         <v>134</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>14</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -2808,16 +2808,16 @@
         <v>99</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="J55" s="1">
         <v>0</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -2840,16 +2840,16 @@
         <v>99</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>11</v>
@@ -2869,13 +2869,13 @@
         <v>152</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J57" s="1">
         <v>0</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -2895,19 +2895,19 @@
         <v>2</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -2915,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C59" s="1">
         <v>2</v>
@@ -2927,19 +2927,19 @@
         <v>2</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J59" s="1">
         <v>0</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -2962,16 +2962,16 @@
         <v>99</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J60" s="1">
         <v>0</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -2979,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C61" s="1">
         <v>2</v>
@@ -2994,16 +2994,16 @@
         <v>99</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J61" s="1">
         <v>0</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>11</v>
@@ -3020,22 +3020,22 @@
         <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J62" s="1">
         <v>0</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C63" s="1">
         <v>2</v>
@@ -3055,19 +3055,19 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -3090,16 +3090,16 @@
         <v>99</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J64" s="1">
         <v>0</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C65" s="1">
         <v>2</v>
@@ -3119,19 +3119,19 @@
         <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>159</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J65" s="1">
         <v>0</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3139,7 +3139,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -3148,13 +3148,13 @@
         <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>159</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>14</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>11</v>
@@ -3180,16 +3180,16 @@
         <v>4</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J67" s="1">
         <v>0</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>11</v>
@@ -3209,10 +3209,10 @@
         <v>43</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>14</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -3241,19 +3241,19 @@
         <v>99</v>
       </c>
       <c r="G69" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I69" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="J69" s="1">
         <v>0</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3261,7 +3261,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -3270,16 +3270,16 @@
         <v>4</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J70" s="1">
         <v>0</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3358,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3390,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3477,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3547,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3579,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3698,7 +3698,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -3768,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3800,7 +3800,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -4079,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -4114,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -4149,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -4181,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -4236,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -4268,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -4300,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -4332,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -4504,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -4536,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -4568,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -4728,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -4795,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -4824,7 +4824,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -4859,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -4920,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -4981,7 +4981,7 @@
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5132,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5164,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5196,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5228,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5260,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5292,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5327,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5359,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5391,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5423,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5487,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5519,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5554,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5653,7 +5653,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5688,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5720,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5752,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5787,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5851,7 +5851,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -5883,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5915,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -5985,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -6017,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -6049,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -6081,7 +6081,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -6110,7 +6110,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -6206,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -6235,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -6264,7 +6264,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -6293,7 +6293,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -6328,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -6398,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -6433,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -6465,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -6497,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -6529,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -6561,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -6593,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -6625,7 +6625,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6712,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6744,7 +6744,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6776,7 +6776,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6840,7 +6840,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6872,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -7074,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -7355,7 +7355,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -7423,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -7977,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -8041,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -8335,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -8683,7 +8683,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -8785,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -9119,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -9220,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -9284,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -9441,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -9583,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -9839,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -9871,7 +9871,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -9903,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -9935,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -10161,7 +10161,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>154</v>
@@ -10176,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -10356,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -10388,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -10420,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -10453,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -10486,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -10546,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -10616,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -10651,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -10816,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -10851,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -10943,7 +10943,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -11007,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -11039,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -11176,7 +11176,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -11240,7 +11240,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -11272,7 +11272,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -11304,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -11374,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -11477,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -11510,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -11543,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -11576,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -11642,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -11675,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -11708,7 +11708,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -11800,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -11832,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -11896,7 +11896,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -11928,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -11992,7 +11992,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -12073,7 +12073,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>136</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -12123,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -12158,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -12224,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -12257,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -12292,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -12325,7 +12325,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -12494,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -12526,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -12558,7 +12558,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -12590,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -12622,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -12692,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -12724,7 +12724,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -12756,7 +12756,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -12788,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -12852,7 +12852,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -12884,7 +12884,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -12919,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -12954,7 +12954,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -13024,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -13056,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -13088,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -13120,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -13152,7 +13152,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -13216,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -13248,7 +13248,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -13342,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -13374,7 +13374,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -13409,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -13441,7 +13441,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -13473,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -13505,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -13537,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -13624,7 +13624,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -13656,7 +13656,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -13688,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -13720,7 +13720,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -13752,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -13784,7 +13784,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -13816,7 +13816,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -13848,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -13880,7 +13880,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -13912,7 +13912,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -13944,7 +13944,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -13976,7 +13976,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -14008,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -14040,7 +14040,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -14075,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -14107,7 +14107,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -14139,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -14174,7 +14174,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -14206,7 +14206,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -14238,7 +14238,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -14270,7 +14270,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -14293,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -14328,7 +14328,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -14360,7 +14360,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -14392,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -14415,7 +14415,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -14447,7 +14447,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -14479,7 +14479,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -14502,7 +14502,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -14534,7 +14534,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -14566,7 +14566,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -14589,7 +14589,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -14621,7 +14621,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -14653,7 +14653,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -14685,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -14720,7 +14720,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -14755,7 +14755,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -14787,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -14819,7 +14819,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -14851,7 +14851,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -14883,7 +14883,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -14915,7 +14915,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -14947,7 +14947,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -14979,7 +14979,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -15011,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -15094,7 +15094,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -15126,7 +15126,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -15158,7 +15158,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -15190,7 +15190,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -15213,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -15248,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -15283,7 +15283,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -15318,7 +15318,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -15341,7 +15341,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -15405,7 +15405,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -15437,7 +15437,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -15469,7 +15469,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -15501,7 +15501,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -15533,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -15556,7 +15556,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -15591,7 +15591,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -15626,7 +15626,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -15661,7 +15661,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -15696,7 +15696,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -15751,7 +15751,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -15783,7 +15783,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -15818,7 +15818,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -15876,7 +15876,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -15908,7 +15908,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -15940,7 +15940,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -15972,7 +15972,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -16004,7 +16004,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -16039,7 +16039,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -16074,7 +16074,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -16106,7 +16106,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -16138,7 +16138,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -16170,7 +16170,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -16202,7 +16202,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -16234,7 +16234,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -16266,7 +16266,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -16298,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -16330,7 +16330,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -16362,7 +16362,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -16429,7 +16429,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -16464,7 +16464,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -16496,7 +16496,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -16528,7 +16528,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -16560,7 +16560,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -16592,7 +16592,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -16624,7 +16624,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -16656,7 +16656,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -16748,7 +16748,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -16780,7 +16780,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -16812,7 +16812,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -16844,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -16876,7 +16876,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -16908,7 +16908,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -16972,7 +16972,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -17004,7 +17004,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -17036,7 +17036,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -17071,7 +17071,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -17106,7 +17106,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -17138,7 +17138,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -17170,7 +17170,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -17202,7 +17202,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -17234,7 +17234,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -17266,7 +17266,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -17298,7 +17298,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -17330,7 +17330,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -17362,7 +17362,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -17394,7 +17394,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -17429,7 +17429,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -17461,7 +17461,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -17493,7 +17493,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -17525,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -17548,7 +17548,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -17583,7 +17583,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -17615,7 +17615,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -17650,7 +17650,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -17685,7 +17685,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -17708,7 +17708,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -17740,7 +17740,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -17772,7 +17772,7 @@
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -17804,7 +17804,7 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -17827,7 +17827,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -17859,7 +17859,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -17891,7 +17891,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -17923,7 +17923,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -17949,7 +17949,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -17981,7 +17981,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -18013,7 +18013,7 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -18045,7 +18045,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -18080,7 +18080,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -18112,7 +18112,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -18144,7 +18144,7 @@
         <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -18176,7 +18176,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -18208,7 +18208,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -18240,7 +18240,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -18272,7 +18272,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -18304,7 +18304,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -18336,7 +18336,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -18368,7 +18368,7 @@
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
